--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Dropbox (UC Berkeley Biostat)/jsLEMMA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527C5CCE-9D23-C940-8FC3-97ADB91649A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D2183D-9ECF-6045-BB73-FCD36A1A1A04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -156,12 +156,6 @@
     <t>duration_hosp_icu</t>
   </si>
   <si>
-    <t>Average Hospital Length of Stay for Patients not in ICU (Days)</t>
-  </si>
-  <si>
-    <t>Average Hospital Length of Stay for Patients in ICU (Days)</t>
-  </si>
-  <si>
     <t>frac_icu</t>
   </si>
   <si>
@@ -354,21 +348,12 @@
     <t>frac_tested</t>
   </si>
   <si>
-    <t>Fraction of true positives tested</t>
-  </si>
-  <si>
     <t>frac_mort_nonhosp</t>
   </si>
   <si>
-    <t>Fraction of infected that die outside of hospital</t>
-  </si>
-  <si>
     <t>Maximum Uptake</t>
   </si>
   <si>
-    <t>Number of J&amp;J Does</t>
-  </si>
-  <si>
     <t>New Admits</t>
   </si>
   <si>
@@ -387,9 +372,6 @@
     <t xml:space="preserve">new detected cases </t>
   </si>
   <si>
-    <t>fraction of population with natural or vaccine immunity</t>
-  </si>
-  <si>
     <t>admits.conf</t>
   </si>
   <si>
@@ -483,9 +465,6 @@
     <t>Reference Date</t>
   </si>
   <si>
-    <t>Proportion of Cases with Variant on Reference Date</t>
-  </si>
-  <si>
     <t>Daily Growth  Prior to Reference Date</t>
   </si>
   <si>
@@ -517,6 +496,27 @@
   </si>
   <si>
     <t>Number of Second Doses Pfizer/Moderna</t>
+  </si>
+  <si>
+    <t>Average Hospital (non-ICU) Length of Stay for Patients (days)</t>
+  </si>
+  <si>
+    <t>Average ICU Length of Stay (days)</t>
+  </si>
+  <si>
+    <t>Percent of true positives tested</t>
+  </si>
+  <si>
+    <t>Percent of infected that die outside of hospital</t>
+  </si>
+  <si>
+    <t>percent of population with natural or vaccine immunity</t>
+  </si>
+  <si>
+    <t>Number of J&amp;J Doses</t>
+  </si>
+  <si>
+    <t>Percentage of Cases with Variant on Reference Date</t>
   </si>
 </sst>
 </file>
@@ -707,7 +707,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -773,16 +773,11 @@
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -792,12 +787,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -865,6 +858,14 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1183,7 +1184,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1210,7 +1211,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -1224,7 +1225,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -1269,7 +1270,7 @@
         <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="C6" s="3">
         <v>6</v>
@@ -1283,7 +1284,7 @@
         <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="C7" s="3">
         <v>7</v>
@@ -1294,10 +1295,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -1322,7 +1323,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -1336,7 +1337,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
@@ -1350,10 +1351,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="C12" s="4">
         <v>0.2</v>
@@ -1364,10 +1365,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="C13" s="31">
         <v>5.0000000000000001E-3</v>
@@ -1396,7 +1397,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1437,7 +1438,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>17</v>
@@ -1454,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1479,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1493,12 +1494,12 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
@@ -1506,7 +1507,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B9" s="3">
         <v>50000</v>
@@ -1514,39 +1515,39 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="B11" s="51"/>
-    </row>
-    <row r="12" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="46"/>
+    </row>
+    <row r="12" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-    </row>
-    <row r="13" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+    </row>
+    <row r="13" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-    </row>
-    <row r="14" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+    </row>
+    <row r="14" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="52"/>
-    </row>
-    <row r="15" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="50"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="47"/>
+    </row>
+    <row r="15" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="45"/>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -1583,18 +1584,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71" t="s">
+      <c r="A1" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="71"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="66"/>
     </row>
     <row r="2" spans="1:6" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
@@ -1618,22 +1619,22 @@
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="D3" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="F3" s="17" t="s">
         <v>58</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1742,168 +1743,167 @@
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="L365" sqref="L365"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="42" customWidth="1"/>
     <col min="4" max="7" width="12.83203125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" style="46" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="46" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" style="42" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="42" customWidth="1"/>
     <col min="10" max="10" width="18" style="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.83203125" style="18"/>
-    <col min="12" max="12" width="10.83203125" style="47"/>
-    <col min="13" max="13" width="10.83203125" style="18"/>
-    <col min="14" max="16384" width="10.83203125" style="48"/>
+    <col min="12" max="13" width="10.83203125" style="52"/>
+    <col min="14" max="16384" width="10.83203125" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="32"/>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="72" t="s">
+      <c r="C1" s="70"/>
+      <c r="D1" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72" t="s">
+      <c r="E1" s="67"/>
+      <c r="F1" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="72"/>
-      <c r="H1" s="75" t="s">
+      <c r="G1" s="67"/>
+      <c r="H1" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="70"/>
+      <c r="J1" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" s="67"/>
+      <c r="L1" s="76" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="76"/>
+    </row>
+    <row r="2" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="34"/>
+      <c r="B2" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="71"/>
+      <c r="F2" s="68" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="69"/>
+      <c r="H2" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="71"/>
+      <c r="J2" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="75"/>
-      <c r="J1" s="72" t="s">
+      <c r="K2" s="69"/>
+      <c r="L2" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="M2" s="77"/>
+    </row>
+    <row r="3" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="78" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72" t="s">
+      <c r="I4" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="M1" s="72"/>
-    </row>
-    <row r="2" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34"/>
-      <c r="B2" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="73" t="s">
+      <c r="J4" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="74"/>
-      <c r="H2" s="76" t="s">
+      <c r="K4" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="I2" s="76"/>
-      <c r="J2" s="73" t="s">
+      <c r="L4" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="K2" s="74"/>
-      <c r="L2" s="35" t="s">
+      <c r="M4" s="79" t="s">
         <v>117</v>
-      </c>
-      <c r="M2" s="36"/>
-    </row>
-    <row r="3" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="I4" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="J4" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="K4" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="L4" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="M4" s="43" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>43919</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="42">
         <v>489</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="42">
         <v>1132</v>
       </c>
       <c r="H5" s="18"/>
@@ -1912,10 +1912,10 @@
       <c r="A6" s="9">
         <v>43920</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="42">
         <v>601</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="42">
         <v>1277</v>
       </c>
       <c r="H6" s="18"/>
@@ -1924,10 +1924,10 @@
       <c r="A7" s="9">
         <v>43921</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="42">
         <v>713</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="42">
         <v>1239</v>
       </c>
       <c r="H7" s="18"/>
@@ -1936,10 +1936,10 @@
       <c r="A8" s="9">
         <v>43922</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="42">
         <v>739</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="42">
         <v>1332</v>
       </c>
       <c r="H8" s="18"/>
@@ -1948,10 +1948,10 @@
       <c r="A9" s="9">
         <v>43923</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="42">
         <v>818</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="42">
         <v>1270</v>
       </c>
       <c r="H9" s="18"/>
@@ -1960,10 +1960,10 @@
       <c r="A10" s="9">
         <v>43924</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="42">
         <v>962</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="42">
         <v>1239</v>
       </c>
       <c r="H10" s="18"/>
@@ -1972,10 +1972,10 @@
       <c r="A11" s="9">
         <v>43925</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="42">
         <v>1007</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="42">
         <v>1190</v>
       </c>
       <c r="H11" s="18"/>
@@ -1984,10 +1984,10 @@
       <c r="A12" s="9">
         <v>43926</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="42">
         <v>1094</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C12" s="42">
         <v>1082</v>
       </c>
       <c r="H12" s="18"/>
@@ -1996,10 +1996,10 @@
       <c r="A13" s="9">
         <v>43927</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="42">
         <v>1166</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="42">
         <v>1070</v>
       </c>
       <c r="H13" s="18"/>
@@ -2008,10 +2008,10 @@
       <c r="A14" s="9">
         <v>43928</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="42">
         <v>1251</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="42">
         <v>1350</v>
       </c>
       <c r="H14" s="18"/>
@@ -2020,10 +2020,10 @@
       <c r="A15" s="9">
         <v>43929</v>
       </c>
-      <c r="B15" s="46">
+      <c r="B15" s="42">
         <v>1331</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15" s="42">
         <v>1077</v>
       </c>
       <c r="H15" s="18"/>
@@ -2032,10 +2032,10 @@
       <c r="A16" s="9">
         <v>43930</v>
       </c>
-      <c r="B16" s="46">
+      <c r="B16" s="42">
         <v>1368</v>
       </c>
-      <c r="C16" s="46">
+      <c r="C16" s="42">
         <v>758</v>
       </c>
       <c r="H16" s="18"/>
@@ -2044,10 +2044,10 @@
       <c r="A17" s="9">
         <v>43931</v>
       </c>
-      <c r="B17" s="46">
+      <c r="B17" s="42">
         <v>1299</v>
       </c>
-      <c r="C17" s="46">
+      <c r="C17" s="42">
         <v>754</v>
       </c>
       <c r="H17" s="18"/>
@@ -2056,10 +2056,10 @@
       <c r="A18" s="9">
         <v>43932</v>
       </c>
-      <c r="B18" s="46">
+      <c r="B18" s="42">
         <v>1362</v>
       </c>
-      <c r="C18" s="46">
+      <c r="C18" s="42">
         <v>905</v>
       </c>
       <c r="H18" s="18"/>
@@ -2068,10 +2068,10 @@
       <c r="A19" s="9">
         <v>43933</v>
       </c>
-      <c r="B19" s="46">
+      <c r="B19" s="42">
         <v>1433</v>
       </c>
-      <c r="C19" s="46">
+      <c r="C19" s="42">
         <v>715</v>
       </c>
       <c r="H19" s="18"/>
@@ -2080,10 +2080,10 @@
       <c r="A20" s="9">
         <v>43934</v>
       </c>
-      <c r="B20" s="46">
+      <c r="B20" s="42">
         <v>1501</v>
       </c>
-      <c r="C20" s="46">
+      <c r="C20" s="42">
         <v>793</v>
       </c>
       <c r="H20" s="18"/>
@@ -2092,10 +2092,10 @@
       <c r="A21" s="9">
         <v>43935</v>
       </c>
-      <c r="B21" s="46">
+      <c r="B21" s="42">
         <v>1587</v>
       </c>
-      <c r="C21" s="46">
+      <c r="C21" s="42">
         <v>613</v>
       </c>
       <c r="H21" s="18"/>
@@ -2104,10 +2104,10 @@
       <c r="A22" s="9">
         <v>43936</v>
       </c>
-      <c r="B22" s="46">
+      <c r="B22" s="42">
         <v>1624</v>
       </c>
-      <c r="C22" s="46">
+      <c r="C22" s="42">
         <v>632</v>
       </c>
       <c r="H22" s="18"/>
@@ -2116,10 +2116,10 @@
       <c r="A23" s="9">
         <v>43937</v>
       </c>
-      <c r="B23" s="46">
+      <c r="B23" s="42">
         <v>1679</v>
       </c>
-      <c r="C23" s="46">
+      <c r="C23" s="42">
         <v>620</v>
       </c>
       <c r="H23" s="18"/>
@@ -2128,10 +2128,10 @@
       <c r="A24" s="9">
         <v>43938</v>
       </c>
-      <c r="B24" s="46">
+      <c r="B24" s="42">
         <v>1720</v>
       </c>
-      <c r="C24" s="46">
+      <c r="C24" s="42">
         <v>634</v>
       </c>
       <c r="H24" s="18"/>
@@ -2140,10 +2140,10 @@
       <c r="A25" s="9">
         <v>43939</v>
       </c>
-      <c r="B25" s="46">
+      <c r="B25" s="42">
         <v>1709</v>
       </c>
-      <c r="C25" s="46">
+      <c r="C25" s="42">
         <v>578</v>
       </c>
       <c r="H25" s="18"/>
@@ -2152,10 +2152,10 @@
       <c r="A26" s="9">
         <v>43940</v>
       </c>
-      <c r="B26" s="46">
+      <c r="B26" s="42">
         <v>1739</v>
       </c>
-      <c r="C26" s="46">
+      <c r="C26" s="42">
         <v>549</v>
       </c>
       <c r="H26" s="18"/>
@@ -2164,10 +2164,10 @@
       <c r="A27" s="9">
         <v>43941</v>
       </c>
-      <c r="B27" s="46">
+      <c r="B27" s="42">
         <v>1791</v>
       </c>
-      <c r="C27" s="46">
+      <c r="C27" s="42">
         <v>602</v>
       </c>
       <c r="H27" s="18"/>
@@ -2176,10 +2176,10 @@
       <c r="A28" s="9">
         <v>43942</v>
       </c>
-      <c r="B28" s="46">
+      <c r="B28" s="42">
         <v>1854</v>
       </c>
-      <c r="C28" s="46">
+      <c r="C28" s="42">
         <v>617</v>
       </c>
       <c r="H28" s="18"/>
@@ -2188,10 +2188,10 @@
       <c r="A29" s="9">
         <v>43943</v>
       </c>
-      <c r="B29" s="46">
+      <c r="B29" s="42">
         <v>1858</v>
       </c>
-      <c r="C29" s="46">
+      <c r="C29" s="42">
         <v>590</v>
       </c>
       <c r="H29" s="18"/>
@@ -2200,10 +2200,10 @@
       <c r="A30" s="9">
         <v>43944</v>
       </c>
-      <c r="B30" s="46">
+      <c r="B30" s="42">
         <v>1863</v>
       </c>
-      <c r="C30" s="46">
+      <c r="C30" s="42">
         <v>595</v>
       </c>
       <c r="H30" s="18"/>
@@ -2212,10 +2212,10 @@
       <c r="A31" s="9">
         <v>43945</v>
       </c>
-      <c r="B31" s="46">
+      <c r="B31" s="42">
         <v>1860</v>
       </c>
-      <c r="C31" s="46">
+      <c r="C31" s="42">
         <v>546</v>
       </c>
       <c r="H31" s="18"/>
@@ -2224,10 +2224,10 @@
       <c r="A32" s="9">
         <v>43946</v>
       </c>
-      <c r="B32" s="46">
+      <c r="B32" s="42">
         <v>1845</v>
       </c>
-      <c r="C32" s="46">
+      <c r="C32" s="42">
         <v>572</v>
       </c>
       <c r="H32" s="18"/>
@@ -2236,10 +2236,10 @@
       <c r="A33" s="9">
         <v>43947</v>
       </c>
-      <c r="B33" s="46">
+      <c r="B33" s="42">
         <v>1887</v>
       </c>
-      <c r="C33" s="46">
+      <c r="C33" s="42">
         <v>575</v>
       </c>
       <c r="H33" s="18"/>
@@ -2248,10 +2248,10 @@
       <c r="A34" s="9">
         <v>43948</v>
       </c>
-      <c r="B34" s="46">
+      <c r="B34" s="42">
         <v>1940</v>
       </c>
-      <c r="C34" s="46">
+      <c r="C34" s="42">
         <v>609</v>
       </c>
       <c r="H34" s="18"/>
@@ -2260,10 +2260,10 @@
       <c r="A35" s="9">
         <v>43949</v>
       </c>
-      <c r="B35" s="46">
+      <c r="B35" s="42">
         <v>1962</v>
       </c>
-      <c r="C35" s="46">
+      <c r="C35" s="42">
         <v>581</v>
       </c>
       <c r="H35" s="18"/>
@@ -2272,10 +2272,10 @@
       <c r="A36" s="9">
         <v>43950</v>
       </c>
-      <c r="B36" s="46">
+      <c r="B36" s="42">
         <v>1959</v>
       </c>
-      <c r="C36" s="46">
+      <c r="C36" s="42">
         <v>591</v>
       </c>
       <c r="H36" s="18"/>
@@ -2287,7 +2287,7 @@
       <c r="B37" s="18">
         <v>1894</v>
       </c>
-      <c r="C37" s="46">
+      <c r="C37" s="42">
         <v>470</v>
       </c>
       <c r="H37" s="18"/>
@@ -2299,7 +2299,7 @@
       <c r="B38" s="18">
         <v>1884</v>
       </c>
-      <c r="C38" s="46">
+      <c r="C38" s="42">
         <v>511</v>
       </c>
     </row>
@@ -2310,7 +2310,7 @@
       <c r="B39" s="18">
         <v>1819</v>
       </c>
-      <c r="C39" s="46">
+      <c r="C39" s="42">
         <v>561</v>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       <c r="B40" s="18">
         <v>1779</v>
       </c>
-      <c r="C40" s="46">
+      <c r="C40" s="42">
         <v>520</v>
       </c>
     </row>
@@ -2332,7 +2332,7 @@
       <c r="B41" s="18">
         <v>1828</v>
       </c>
-      <c r="C41" s="46">
+      <c r="C41" s="42">
         <v>543</v>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       <c r="B42" s="18">
         <v>1826</v>
       </c>
-      <c r="C42" s="46">
+      <c r="C42" s="42">
         <v>544</v>
       </c>
     </row>
@@ -2351,10 +2351,10 @@
       <c r="A43" s="9">
         <v>43957</v>
       </c>
-      <c r="B43" s="46">
+      <c r="B43" s="42">
         <v>1790</v>
       </c>
-      <c r="C43" s="46">
+      <c r="C43" s="42">
         <v>502</v>
       </c>
     </row>
@@ -2362,10 +2362,10 @@
       <c r="A44" s="9">
         <v>43958</v>
       </c>
-      <c r="B44" s="46">
+      <c r="B44" s="42">
         <v>1771</v>
       </c>
-      <c r="C44" s="46">
+      <c r="C44" s="42">
         <v>552</v>
       </c>
     </row>
@@ -2373,10 +2373,10 @@
       <c r="A45" s="9">
         <v>43959</v>
       </c>
-      <c r="B45" s="46">
+      <c r="B45" s="42">
         <v>1766</v>
       </c>
-      <c r="C45" s="46">
+      <c r="C45" s="42">
         <v>510</v>
       </c>
     </row>
@@ -2384,10 +2384,10 @@
       <c r="A46" s="9">
         <v>43960</v>
       </c>
-      <c r="B46" s="46">
+      <c r="B46" s="42">
         <v>1690</v>
       </c>
-      <c r="C46" s="46">
+      <c r="C46" s="42">
         <v>531</v>
       </c>
     </row>
@@ -2395,10 +2395,10 @@
       <c r="A47" s="9">
         <v>43961</v>
       </c>
-      <c r="B47" s="46">
+      <c r="B47" s="42">
         <v>1731</v>
       </c>
-      <c r="C47" s="46">
+      <c r="C47" s="42">
         <v>539</v>
       </c>
     </row>
@@ -2406,10 +2406,10 @@
       <c r="A48" s="9">
         <v>43962</v>
       </c>
-      <c r="B48" s="46">
+      <c r="B48" s="42">
         <v>1763</v>
       </c>
-      <c r="C48" s="46">
+      <c r="C48" s="42">
         <v>547</v>
       </c>
     </row>
@@ -2417,10 +2417,10 @@
       <c r="A49" s="9">
         <v>43963</v>
       </c>
-      <c r="B49" s="46">
+      <c r="B49" s="42">
         <v>1742</v>
       </c>
-      <c r="C49" s="46">
+      <c r="C49" s="42">
         <v>506</v>
       </c>
     </row>
@@ -2428,10 +2428,10 @@
       <c r="A50" s="9">
         <v>43964</v>
       </c>
-      <c r="B50" s="46">
+      <c r="B50" s="42">
         <v>1733</v>
       </c>
-      <c r="C50" s="46">
+      <c r="C50" s="42">
         <v>618</v>
       </c>
     </row>
@@ -2439,10 +2439,10 @@
       <c r="A51" s="9">
         <v>43965</v>
       </c>
-      <c r="B51" s="46">
+      <c r="B51" s="42">
         <v>1648</v>
       </c>
-      <c r="C51" s="46">
+      <c r="C51" s="42">
         <v>559</v>
       </c>
     </row>
@@ -2450,10 +2450,10 @@
       <c r="A52" s="9">
         <v>43966</v>
       </c>
-      <c r="B52" s="46">
+      <c r="B52" s="42">
         <v>1648</v>
       </c>
-      <c r="C52" s="46">
+      <c r="C52" s="42">
         <v>553</v>
       </c>
     </row>
@@ -2461,10 +2461,10 @@
       <c r="A53" s="9">
         <v>43967</v>
       </c>
-      <c r="B53" s="46">
+      <c r="B53" s="42">
         <v>1570</v>
       </c>
-      <c r="C53" s="46">
+      <c r="C53" s="42">
         <v>516</v>
       </c>
     </row>
@@ -2472,10 +2472,10 @@
       <c r="A54" s="9">
         <v>43968</v>
       </c>
-      <c r="B54" s="46">
+      <c r="B54" s="42">
         <v>1549</v>
       </c>
-      <c r="C54" s="46">
+      <c r="C54" s="42">
         <v>558</v>
       </c>
     </row>
@@ -2483,10 +2483,10 @@
       <c r="A55" s="9">
         <v>43969</v>
       </c>
-      <c r="B55" s="46">
+      <c r="B55" s="42">
         <v>1531</v>
       </c>
-      <c r="C55" s="46">
+      <c r="C55" s="42">
         <v>520</v>
       </c>
     </row>
@@ -2494,10 +2494,10 @@
       <c r="A56" s="9">
         <v>43970</v>
       </c>
-      <c r="B56" s="46">
+      <c r="B56" s="42">
         <v>1517</v>
       </c>
-      <c r="C56" s="46">
+      <c r="C56" s="42">
         <v>619</v>
       </c>
     </row>
@@ -2505,10 +2505,10 @@
       <c r="A57" s="9">
         <v>43971</v>
       </c>
-      <c r="B57" s="46">
+      <c r="B57" s="42">
         <v>1506</v>
       </c>
-      <c r="C57" s="46">
+      <c r="C57" s="42">
         <v>561</v>
       </c>
     </row>
@@ -2516,10 +2516,10 @@
       <c r="A58" s="9">
         <v>43972</v>
       </c>
-      <c r="B58" s="46">
+      <c r="B58" s="42">
         <v>1491</v>
       </c>
-      <c r="C58" s="46">
+      <c r="C58" s="42">
         <v>614</v>
       </c>
     </row>
@@ -2527,10 +2527,10 @@
       <c r="A59" s="9">
         <v>43973</v>
       </c>
-      <c r="B59" s="46">
+      <c r="B59" s="42">
         <v>1490</v>
       </c>
-      <c r="C59" s="46">
+      <c r="C59" s="42">
         <v>565</v>
       </c>
     </row>
@@ -2538,10 +2538,10 @@
       <c r="A60" s="9">
         <v>43974</v>
       </c>
-      <c r="B60" s="46">
+      <c r="B60" s="42">
         <v>1440</v>
       </c>
-      <c r="C60" s="46">
+      <c r="C60" s="42">
         <v>566</v>
       </c>
     </row>
@@ -2549,10 +2549,10 @@
       <c r="A61" s="9">
         <v>43975</v>
       </c>
-      <c r="B61" s="46">
+      <c r="B61" s="42">
         <v>1443</v>
       </c>
-      <c r="C61" s="46">
+      <c r="C61" s="42">
         <v>547</v>
       </c>
     </row>
@@ -2560,10 +2560,10 @@
       <c r="A62" s="9">
         <v>43976</v>
       </c>
-      <c r="B62" s="46">
+      <c r="B62" s="42">
         <v>1477</v>
       </c>
-      <c r="C62" s="46">
+      <c r="C62" s="42">
         <v>564</v>
       </c>
     </row>
@@ -2571,10 +2571,10 @@
       <c r="A63" s="9">
         <v>43977</v>
       </c>
-      <c r="B63" s="46">
+      <c r="B63" s="42">
         <v>1477</v>
       </c>
-      <c r="C63" s="46">
+      <c r="C63" s="42">
         <v>610</v>
       </c>
     </row>
@@ -2582,10 +2582,10 @@
       <c r="A64" s="9">
         <v>43978</v>
       </c>
-      <c r="B64" s="46">
+      <c r="B64" s="42">
         <v>1462</v>
       </c>
-      <c r="C64" s="46">
+      <c r="C64" s="42">
         <v>628</v>
       </c>
     </row>
@@ -2593,10 +2593,10 @@
       <c r="A65" s="9">
         <v>43979</v>
       </c>
-      <c r="B65" s="46">
+      <c r="B65" s="42">
         <v>1415</v>
       </c>
-      <c r="C65" s="46">
+      <c r="C65" s="42">
         <v>639</v>
       </c>
     </row>
@@ -2604,10 +2604,10 @@
       <c r="A66" s="9">
         <v>43980</v>
       </c>
-      <c r="B66" s="46">
+      <c r="B66" s="42">
         <v>1402</v>
       </c>
-      <c r="C66" s="46">
+      <c r="C66" s="42">
         <v>570</v>
       </c>
     </row>
@@ -2615,10 +2615,10 @@
       <c r="A67" s="9">
         <v>43981</v>
       </c>
-      <c r="B67" s="46">
+      <c r="B67" s="42">
         <v>1357</v>
       </c>
-      <c r="C67" s="46">
+      <c r="C67" s="42">
         <v>577</v>
       </c>
     </row>
@@ -2626,10 +2626,10 @@
       <c r="A68" s="9">
         <v>43982</v>
       </c>
-      <c r="B68" s="46">
+      <c r="B68" s="42">
         <v>1389</v>
       </c>
-      <c r="C68" s="46">
+      <c r="C68" s="42">
         <v>519</v>
       </c>
     </row>
@@ -2637,10 +2637,10 @@
       <c r="A69" s="9">
         <v>43983</v>
       </c>
-      <c r="B69" s="46">
+      <c r="B69" s="42">
         <v>1422</v>
       </c>
-      <c r="C69" s="46">
+      <c r="C69" s="42">
         <v>596</v>
       </c>
     </row>
@@ -2648,10 +2648,10 @@
       <c r="A70" s="9">
         <v>43984</v>
       </c>
-      <c r="B70" s="46">
+      <c r="B70" s="42">
         <v>1457</v>
       </c>
-      <c r="C70" s="46">
+      <c r="C70" s="42">
         <v>570</v>
       </c>
     </row>
@@ -2659,10 +2659,10 @@
       <c r="A71" s="9">
         <v>43985</v>
       </c>
-      <c r="B71" s="46">
+      <c r="B71" s="42">
         <v>1488</v>
       </c>
-      <c r="C71" s="46">
+      <c r="C71" s="42">
         <v>502</v>
       </c>
     </row>
@@ -2670,10 +2670,10 @@
       <c r="A72" s="9">
         <v>43986</v>
       </c>
-      <c r="B72" s="46">
+      <c r="B72" s="42">
         <v>1462</v>
       </c>
-      <c r="C72" s="46">
+      <c r="C72" s="42">
         <v>586</v>
       </c>
     </row>
@@ -2681,10 +2681,10 @@
       <c r="A73" s="9">
         <v>43987</v>
       </c>
-      <c r="B73" s="46">
+      <c r="B73" s="42">
         <v>1451</v>
       </c>
-      <c r="C73" s="46">
+      <c r="C73" s="42">
         <v>547</v>
       </c>
     </row>
@@ -2692,10 +2692,10 @@
       <c r="A74" s="9">
         <v>43988</v>
       </c>
-      <c r="B74" s="46">
+      <c r="B74" s="42">
         <v>1399</v>
       </c>
-      <c r="C74" s="46">
+      <c r="C74" s="42">
         <v>582</v>
       </c>
     </row>
@@ -2703,10 +2703,10 @@
       <c r="A75" s="9">
         <v>43989</v>
       </c>
-      <c r="B75" s="46">
+      <c r="B75" s="42">
         <v>1453</v>
       </c>
-      <c r="C75" s="46">
+      <c r="C75" s="42">
         <v>558</v>
       </c>
     </row>
@@ -2714,10 +2714,10 @@
       <c r="A76" s="9">
         <v>43990</v>
       </c>
-      <c r="B76" s="46">
+      <c r="B76" s="42">
         <v>1458</v>
       </c>
-      <c r="C76" s="46">
+      <c r="C76" s="42">
         <v>595</v>
       </c>
     </row>
@@ -2725,10 +2725,10 @@
       <c r="A77" s="9">
         <v>43991</v>
       </c>
-      <c r="B77" s="46">
+      <c r="B77" s="42">
         <v>1416</v>
       </c>
-      <c r="C77" s="46">
+      <c r="C77" s="42">
         <v>695</v>
       </c>
     </row>
@@ -2736,10 +2736,10 @@
       <c r="A78" s="9">
         <v>43992</v>
       </c>
-      <c r="B78" s="46">
+      <c r="B78" s="42">
         <v>1389</v>
       </c>
-      <c r="C78" s="46">
+      <c r="C78" s="42">
         <v>564</v>
       </c>
     </row>
@@ -2747,10 +2747,10 @@
       <c r="A79" s="9">
         <v>43993</v>
       </c>
-      <c r="B79" s="46">
+      <c r="B79" s="42">
         <v>1397</v>
       </c>
-      <c r="C79" s="46">
+      <c r="C79" s="42">
         <v>576</v>
       </c>
     </row>
@@ -2758,10 +2758,10 @@
       <c r="A80" s="9">
         <v>43994</v>
       </c>
-      <c r="B80" s="46">
+      <c r="B80" s="42">
         <v>1383</v>
       </c>
-      <c r="C80" s="46">
+      <c r="C80" s="42">
         <v>487</v>
       </c>
     </row>
@@ -2769,10 +2769,10 @@
       <c r="A81" s="9">
         <v>43995</v>
       </c>
-      <c r="B81" s="46">
+      <c r="B81" s="42">
         <v>1285</v>
       </c>
-      <c r="C81" s="46">
+      <c r="C81" s="42">
         <v>483</v>
       </c>
     </row>
@@ -2780,10 +2780,10 @@
       <c r="A82" s="9">
         <v>43996</v>
       </c>
-      <c r="B82" s="46">
+      <c r="B82" s="42">
         <v>1288</v>
       </c>
-      <c r="C82" s="46">
+      <c r="C82" s="42">
         <v>509</v>
       </c>
     </row>
@@ -2791,10 +2791,10 @@
       <c r="A83" s="9">
         <v>43997</v>
       </c>
-      <c r="B83" s="46">
+      <c r="B83" s="42">
         <v>1420</v>
       </c>
-      <c r="C83" s="46">
+      <c r="C83" s="42">
         <v>536</v>
       </c>
     </row>
@@ -2802,10 +2802,10 @@
       <c r="A84" s="9">
         <v>43998</v>
       </c>
-      <c r="B84" s="46">
+      <c r="B84" s="42">
         <v>1429</v>
       </c>
-      <c r="C84" s="46">
+      <c r="C84" s="42">
         <v>518</v>
       </c>
     </row>
@@ -2813,10 +2813,10 @@
       <c r="A85" s="9">
         <v>43999</v>
       </c>
-      <c r="B85" s="46">
+      <c r="B85" s="42">
         <v>1446</v>
       </c>
-      <c r="C85" s="46">
+      <c r="C85" s="42">
         <v>512</v>
       </c>
     </row>
@@ -2824,10 +2824,10 @@
       <c r="A86" s="9">
         <v>44000</v>
       </c>
-      <c r="B86" s="46">
+      <c r="B86" s="42">
         <v>1406</v>
       </c>
-      <c r="C86" s="46">
+      <c r="C86" s="42">
         <v>494</v>
       </c>
     </row>
@@ -2835,10 +2835,10 @@
       <c r="A87" s="9">
         <v>44001</v>
       </c>
-      <c r="B87" s="46">
+      <c r="B87" s="42">
         <v>1426</v>
       </c>
-      <c r="C87" s="46">
+      <c r="C87" s="42">
         <v>494</v>
       </c>
     </row>
@@ -2846,10 +2846,10 @@
       <c r="A88" s="9">
         <v>44002</v>
       </c>
-      <c r="B88" s="46">
+      <c r="B88" s="42">
         <v>1453</v>
       </c>
-      <c r="C88" s="46">
+      <c r="C88" s="42">
         <v>516</v>
       </c>
     </row>
@@ -2857,10 +2857,10 @@
       <c r="A89" s="9">
         <v>44003</v>
       </c>
-      <c r="B89" s="46">
+      <c r="B89" s="42">
         <v>1515</v>
       </c>
-      <c r="C89" s="46">
+      <c r="C89" s="42">
         <v>486</v>
       </c>
     </row>
@@ -2868,10 +2868,10 @@
       <c r="A90" s="9">
         <v>44004</v>
       </c>
-      <c r="B90" s="46">
+      <c r="B90" s="42">
         <v>1556</v>
       </c>
-      <c r="C90" s="46">
+      <c r="C90" s="42">
         <v>534</v>
       </c>
     </row>
@@ -2879,10 +2879,10 @@
       <c r="A91" s="9">
         <v>44005</v>
       </c>
-      <c r="B91" s="46">
+      <c r="B91" s="42">
         <v>1633</v>
       </c>
-      <c r="C91" s="46">
+      <c r="C91" s="42">
         <v>626</v>
       </c>
     </row>
@@ -2890,10 +2890,10 @@
       <c r="A92" s="9">
         <v>44006</v>
       </c>
-      <c r="B92" s="46">
+      <c r="B92" s="42">
         <v>1676</v>
       </c>
-      <c r="C92" s="46">
+      <c r="C92" s="42">
         <v>607</v>
       </c>
     </row>
@@ -2901,10 +2901,10 @@
       <c r="A93" s="9">
         <v>44007</v>
       </c>
-      <c r="B93" s="46">
+      <c r="B93" s="42">
         <v>1698</v>
       </c>
-      <c r="C93" s="46">
+      <c r="C93" s="42">
         <v>539</v>
       </c>
     </row>
@@ -2912,10 +2912,10 @@
       <c r="A94" s="9">
         <v>44008</v>
       </c>
-      <c r="B94" s="46">
+      <c r="B94" s="42">
         <v>1717</v>
       </c>
-      <c r="C94" s="46">
+      <c r="C94" s="42">
         <v>579</v>
       </c>
     </row>
@@ -2923,10 +2923,10 @@
       <c r="A95" s="9">
         <v>44009</v>
       </c>
-      <c r="B95" s="46">
+      <c r="B95" s="42">
         <v>1710</v>
       </c>
-      <c r="C95" s="46">
+      <c r="C95" s="42">
         <v>606</v>
       </c>
     </row>
@@ -2934,10 +2934,10 @@
       <c r="A96" s="9">
         <v>44010</v>
       </c>
-      <c r="B96" s="46">
+      <c r="B96" s="42">
         <v>1783</v>
       </c>
-      <c r="C96" s="46">
+      <c r="C96" s="42">
         <v>682</v>
       </c>
     </row>
@@ -2945,10 +2945,10 @@
       <c r="A97" s="9">
         <v>44011</v>
       </c>
-      <c r="B97" s="46">
+      <c r="B97" s="42">
         <v>1889</v>
       </c>
-      <c r="C97" s="46">
+      <c r="C97" s="42">
         <v>622</v>
       </c>
     </row>
@@ -2956,10 +2956,10 @@
       <c r="A98" s="9">
         <v>44012</v>
       </c>
-      <c r="B98" s="46">
+      <c r="B98" s="42">
         <v>1893</v>
       </c>
-      <c r="C98" s="46">
+      <c r="C98" s="42">
         <v>645</v>
       </c>
     </row>
@@ -2967,10 +2967,10 @@
       <c r="A99" s="9">
         <v>44013</v>
       </c>
-      <c r="B99" s="46">
+      <c r="B99" s="42">
         <v>1937</v>
       </c>
-      <c r="C99" s="46">
+      <c r="C99" s="42">
         <v>643</v>
       </c>
     </row>
@@ -2978,10 +2978,10 @@
       <c r="A100" s="9">
         <v>44014</v>
       </c>
-      <c r="B100" s="46">
+      <c r="B100" s="42">
         <v>1933</v>
       </c>
-      <c r="C100" s="46">
+      <c r="C100" s="42">
         <v>679</v>
       </c>
     </row>
@@ -2989,10 +2989,10 @@
       <c r="A101" s="9">
         <v>44015</v>
       </c>
-      <c r="B101" s="46">
+      <c r="B101" s="42">
         <v>1947</v>
       </c>
-      <c r="C101" s="46">
+      <c r="C101" s="42">
         <v>696</v>
       </c>
     </row>
@@ -3000,10 +3000,10 @@
       <c r="A102" s="9">
         <v>44016</v>
       </c>
-      <c r="B102" s="46">
+      <c r="B102" s="42">
         <v>1921</v>
       </c>
-      <c r="C102" s="46">
+      <c r="C102" s="42">
         <v>653</v>
       </c>
     </row>
@@ -3011,10 +3011,10 @@
       <c r="A103" s="9">
         <v>44017</v>
       </c>
-      <c r="B103" s="46">
+      <c r="B103" s="42">
         <v>1969</v>
       </c>
-      <c r="C103" s="46">
+      <c r="C103" s="42">
         <v>676</v>
       </c>
     </row>
@@ -3022,10 +3022,10 @@
       <c r="A104" s="9">
         <v>44018</v>
       </c>
-      <c r="B104" s="46">
+      <c r="B104" s="42">
         <v>2004</v>
       </c>
-      <c r="C104" s="46">
+      <c r="C104" s="42">
         <v>666</v>
       </c>
     </row>
@@ -3033,10 +3033,10 @@
       <c r="A105" s="9">
         <v>44019</v>
       </c>
-      <c r="B105" s="46">
+      <c r="B105" s="42">
         <v>2037</v>
       </c>
-      <c r="C105" s="46">
+      <c r="C105" s="42">
         <v>792</v>
       </c>
     </row>
@@ -3044,10 +3044,10 @@
       <c r="A106" s="9">
         <v>44020</v>
       </c>
-      <c r="B106" s="46">
+      <c r="B106" s="42">
         <v>1995</v>
       </c>
-      <c r="C106" s="46">
+      <c r="C106" s="42">
         <v>822</v>
       </c>
     </row>
@@ -3055,10 +3055,10 @@
       <c r="A107" s="9">
         <v>44021</v>
       </c>
-      <c r="B107" s="46">
+      <c r="B107" s="42">
         <v>2032</v>
       </c>
-      <c r="C107" s="46">
+      <c r="C107" s="42">
         <v>817</v>
       </c>
     </row>
@@ -3066,10 +3066,10 @@
       <c r="A108" s="9">
         <v>44022</v>
       </c>
-      <c r="B108" s="46">
+      <c r="B108" s="42">
         <v>2093</v>
       </c>
-      <c r="C108" s="46">
+      <c r="C108" s="42">
         <v>684</v>
       </c>
     </row>
@@ -3077,10 +3077,10 @@
       <c r="A109" s="9">
         <v>44023</v>
       </c>
-      <c r="B109" s="46">
+      <c r="B109" s="42">
         <v>2056</v>
       </c>
-      <c r="C109" s="46">
+      <c r="C109" s="42">
         <v>713</v>
       </c>
     </row>
@@ -3088,10 +3088,10 @@
       <c r="A110" s="9">
         <v>44024</v>
       </c>
-      <c r="B110" s="46">
+      <c r="B110" s="42">
         <v>2103</v>
       </c>
-      <c r="C110" s="46">
+      <c r="C110" s="42">
         <v>670</v>
       </c>
     </row>
@@ -3099,10 +3099,10 @@
       <c r="A111" s="9">
         <v>44025</v>
       </c>
-      <c r="B111" s="46">
+      <c r="B111" s="42">
         <v>2193</v>
       </c>
-      <c r="C111" s="46">
+      <c r="C111" s="42">
         <v>612</v>
       </c>
     </row>
@@ -3110,10 +3110,10 @@
       <c r="A112" s="9">
         <v>44026</v>
       </c>
-      <c r="B112" s="46">
+      <c r="B112" s="42">
         <v>2173</v>
       </c>
-      <c r="C112" s="46">
+      <c r="C112" s="42">
         <v>726</v>
       </c>
     </row>
@@ -3121,10 +3121,10 @@
       <c r="A113" s="9">
         <v>44027</v>
       </c>
-      <c r="B113" s="46">
+      <c r="B113" s="42">
         <v>2122</v>
       </c>
-      <c r="C113" s="46">
+      <c r="C113" s="42">
         <v>729</v>
       </c>
     </row>
@@ -3132,10 +3132,10 @@
       <c r="A114" s="9">
         <v>44028</v>
       </c>
-      <c r="B114" s="46">
+      <c r="B114" s="42">
         <v>2188</v>
       </c>
-      <c r="C114" s="46">
+      <c r="C114" s="42">
         <v>719</v>
       </c>
     </row>
@@ -3143,10 +3143,10 @@
       <c r="A115" s="9">
         <v>44029</v>
       </c>
-      <c r="B115" s="46">
+      <c r="B115" s="42">
         <v>2216</v>
       </c>
-      <c r="C115" s="46">
+      <c r="C115" s="42">
         <v>660</v>
       </c>
     </row>
@@ -3154,10 +3154,10 @@
       <c r="A116" s="9">
         <v>44030</v>
       </c>
-      <c r="B116" s="46">
+      <c r="B116" s="42">
         <v>2232</v>
       </c>
-      <c r="C116" s="46">
+      <c r="C116" s="42">
         <v>608</v>
       </c>
     </row>
@@ -3165,10 +3165,10 @@
       <c r="A117" s="9">
         <v>44031</v>
       </c>
-      <c r="B117" s="46">
+      <c r="B117" s="42">
         <v>2218</v>
       </c>
-      <c r="C117" s="46">
+      <c r="C117" s="42">
         <v>616</v>
       </c>
     </row>
@@ -3176,10 +3176,10 @@
       <c r="A118" s="9">
         <v>44032</v>
       </c>
-      <c r="B118" s="46">
+      <c r="B118" s="42">
         <v>2207</v>
       </c>
-      <c r="C118" s="46">
+      <c r="C118" s="42">
         <v>670</v>
       </c>
     </row>
@@ -3187,10 +3187,10 @@
       <c r="A119" s="9">
         <v>44033</v>
       </c>
-      <c r="B119" s="46">
+      <c r="B119" s="42">
         <v>2210</v>
       </c>
-      <c r="C119" s="46">
+      <c r="C119" s="42">
         <v>620</v>
       </c>
     </row>
@@ -3198,10 +3198,10 @@
       <c r="A120" s="9">
         <v>44034</v>
       </c>
-      <c r="B120" s="46">
+      <c r="B120" s="42">
         <v>1928</v>
       </c>
-      <c r="C120" s="46">
+      <c r="C120" s="42">
         <v>542</v>
       </c>
     </row>
@@ -3209,10 +3209,10 @@
       <c r="A121" s="9">
         <v>44035</v>
       </c>
-      <c r="B121" s="46">
+      <c r="B121" s="42">
         <v>2016</v>
       </c>
-      <c r="C121" s="46">
+      <c r="C121" s="42">
         <v>582</v>
       </c>
     </row>
@@ -3220,10 +3220,10 @@
       <c r="A122" s="9">
         <v>44036</v>
       </c>
-      <c r="B122" s="46">
+      <c r="B122" s="42">
         <v>2033</v>
       </c>
-      <c r="C122" s="46">
+      <c r="C122" s="42">
         <v>595</v>
       </c>
     </row>
@@ -3231,10 +3231,10 @@
       <c r="A123" s="9">
         <v>44037</v>
       </c>
-      <c r="B123" s="46">
+      <c r="B123" s="42">
         <v>2017</v>
       </c>
-      <c r="C123" s="46">
+      <c r="C123" s="42">
         <v>535</v>
       </c>
     </row>
@@ -3242,10 +3242,10 @@
       <c r="A124" s="9">
         <v>44038</v>
       </c>
-      <c r="B124" s="46">
+      <c r="B124" s="42">
         <v>2051</v>
       </c>
-      <c r="C124" s="46">
+      <c r="C124" s="42">
         <v>570</v>
       </c>
     </row>
@@ -3253,10 +3253,10 @@
       <c r="A125" s="9">
         <v>44039</v>
       </c>
-      <c r="B125" s="46">
+      <c r="B125" s="42">
         <v>2045</v>
       </c>
-      <c r="C125" s="46">
+      <c r="C125" s="42">
         <v>554</v>
       </c>
     </row>
@@ -3264,10 +3264,10 @@
       <c r="A126" s="9">
         <v>44040</v>
       </c>
-      <c r="B126" s="46">
+      <c r="B126" s="42">
         <v>2022</v>
       </c>
-      <c r="C126" s="46">
+      <c r="C126" s="42">
         <v>575</v>
       </c>
     </row>
@@ -3275,10 +3275,10 @@
       <c r="A127" s="9">
         <v>44041</v>
       </c>
-      <c r="B127" s="46">
+      <c r="B127" s="42">
         <v>2002</v>
       </c>
-      <c r="C127" s="46">
+      <c r="C127" s="42">
         <v>566</v>
       </c>
     </row>
@@ -3286,10 +3286,10 @@
       <c r="A128" s="9">
         <v>44042</v>
       </c>
-      <c r="B128" s="46">
+      <c r="B128" s="42">
         <v>1904</v>
       </c>
-      <c r="C128" s="46">
+      <c r="C128" s="42">
         <v>553</v>
       </c>
     </row>
@@ -3297,10 +3297,10 @@
       <c r="A129" s="9">
         <v>44043</v>
       </c>
-      <c r="B129" s="46">
+      <c r="B129" s="42">
         <v>1856</v>
       </c>
-      <c r="C129" s="46">
+      <c r="C129" s="42">
         <v>516</v>
       </c>
     </row>
@@ -3308,10 +3308,10 @@
       <c r="A130" s="9">
         <v>44044</v>
       </c>
-      <c r="B130" s="46">
+      <c r="B130" s="42">
         <v>1784</v>
       </c>
-      <c r="C130" s="46">
+      <c r="C130" s="42">
         <v>557</v>
       </c>
     </row>
@@ -3319,10 +3319,10 @@
       <c r="A131" s="9">
         <v>44045</v>
       </c>
-      <c r="B131" s="46">
+      <c r="B131" s="42">
         <v>1757</v>
       </c>
-      <c r="C131" s="46">
+      <c r="C131" s="42">
         <v>506</v>
       </c>
     </row>
@@ -3330,10 +3330,10 @@
       <c r="A132" s="9">
         <v>44046</v>
       </c>
-      <c r="B132" s="46">
+      <c r="B132" s="42">
         <v>1768</v>
       </c>
-      <c r="C132" s="46">
+      <c r="C132" s="42">
         <v>541</v>
       </c>
     </row>
@@ -3341,10 +3341,10 @@
       <c r="A133" s="9">
         <v>44047</v>
       </c>
-      <c r="B133" s="46">
+      <c r="B133" s="42">
         <v>1741</v>
       </c>
-      <c r="C133" s="46">
+      <c r="C133" s="42">
         <v>556</v>
       </c>
     </row>
@@ -3352,10 +3352,10 @@
       <c r="A134" s="9">
         <v>44048</v>
       </c>
-      <c r="B134" s="46">
+      <c r="B134" s="42">
         <v>1680</v>
       </c>
-      <c r="C134" s="46">
+      <c r="C134" s="42">
         <v>602</v>
       </c>
     </row>
@@ -3363,10 +3363,10 @@
       <c r="A135" s="9">
         <v>44049</v>
       </c>
-      <c r="B135" s="46">
+      <c r="B135" s="42">
         <v>1610</v>
       </c>
-      <c r="C135" s="46">
+      <c r="C135" s="42">
         <v>581</v>
       </c>
     </row>
@@ -3374,10 +3374,10 @@
       <c r="A136" s="9">
         <v>44050</v>
       </c>
-      <c r="B136" s="46">
+      <c r="B136" s="42">
         <v>1568</v>
       </c>
-      <c r="C136" s="46">
+      <c r="C136" s="42">
         <v>478</v>
       </c>
     </row>
@@ -3385,10 +3385,10 @@
       <c r="A137" s="9">
         <v>44051</v>
       </c>
-      <c r="B137" s="46">
+      <c r="B137" s="42">
         <v>1514</v>
       </c>
-      <c r="C137" s="46">
+      <c r="C137" s="42">
         <v>513</v>
       </c>
     </row>
@@ -3396,10 +3396,10 @@
       <c r="A138" s="9">
         <v>44052</v>
       </c>
-      <c r="B138" s="46">
+      <c r="B138" s="42">
         <v>1524</v>
       </c>
-      <c r="C138" s="46">
+      <c r="C138" s="42">
         <v>468</v>
       </c>
     </row>
@@ -3407,10 +3407,10 @@
       <c r="A139" s="9">
         <v>44053</v>
       </c>
-      <c r="B139" s="46">
+      <c r="B139" s="42">
         <v>1538</v>
       </c>
-      <c r="C139" s="46">
+      <c r="C139" s="42">
         <v>446</v>
       </c>
     </row>
@@ -3418,10 +3418,10 @@
       <c r="A140" s="9">
         <v>44054</v>
       </c>
-      <c r="B140" s="46">
+      <c r="B140" s="42">
         <v>1481</v>
       </c>
-      <c r="C140" s="46">
+      <c r="C140" s="42">
         <v>470</v>
       </c>
     </row>
@@ -3429,10 +3429,10 @@
       <c r="A141" s="9">
         <v>44055</v>
       </c>
-      <c r="B141" s="46">
+      <c r="B141" s="42">
         <v>1415</v>
       </c>
-      <c r="C141" s="46">
+      <c r="C141" s="42">
         <v>472</v>
       </c>
     </row>
@@ -3440,10 +3440,10 @@
       <c r="A142" s="9">
         <v>44056</v>
       </c>
-      <c r="B142" s="46">
+      <c r="B142" s="42">
         <v>1393</v>
       </c>
-      <c r="C142" s="46">
+      <c r="C142" s="42">
         <v>520</v>
       </c>
     </row>
@@ -3451,10 +3451,10 @@
       <c r="A143" s="9">
         <v>44057</v>
       </c>
-      <c r="B143" s="46">
+      <c r="B143" s="42">
         <v>1357</v>
       </c>
-      <c r="C143" s="46">
+      <c r="C143" s="42">
         <v>556</v>
       </c>
     </row>
@@ -3462,10 +3462,10 @@
       <c r="A144" s="9">
         <v>44058</v>
       </c>
-      <c r="B144" s="46">
+      <c r="B144" s="42">
         <v>1341</v>
       </c>
-      <c r="C144" s="46">
+      <c r="C144" s="42">
         <v>573</v>
       </c>
     </row>
@@ -3473,10 +3473,10 @@
       <c r="A145" s="9">
         <v>44059</v>
       </c>
-      <c r="B145" s="46">
+      <c r="B145" s="42">
         <v>1352</v>
       </c>
-      <c r="C145" s="46">
+      <c r="C145" s="42">
         <v>555</v>
       </c>
     </row>
@@ -3484,10 +3484,10 @@
       <c r="A146" s="9">
         <v>44060</v>
       </c>
-      <c r="B146" s="46">
+      <c r="B146" s="42">
         <v>1378</v>
       </c>
-      <c r="C146" s="46">
+      <c r="C146" s="42">
         <v>518</v>
       </c>
     </row>
@@ -3495,10 +3495,10 @@
       <c r="A147" s="9">
         <v>44061</v>
       </c>
-      <c r="B147" s="46">
+      <c r="B147" s="42">
         <v>1378</v>
       </c>
-      <c r="C147" s="46">
+      <c r="C147" s="42">
         <v>591</v>
       </c>
     </row>
@@ -3506,10 +3506,10 @@
       <c r="A148" s="9">
         <v>44062</v>
       </c>
-      <c r="B148" s="46">
+      <c r="B148" s="42">
         <v>1347</v>
       </c>
-      <c r="C148" s="46">
+      <c r="C148" s="42">
         <v>551</v>
       </c>
     </row>
@@ -3517,10 +3517,10 @@
       <c r="A149" s="9">
         <v>44063</v>
       </c>
-      <c r="B149" s="46">
+      <c r="B149" s="42">
         <v>1280</v>
       </c>
-      <c r="C149" s="46">
+      <c r="C149" s="42">
         <v>509</v>
       </c>
     </row>
@@ -3528,10 +3528,10 @@
       <c r="A150" s="9">
         <v>44064</v>
       </c>
-      <c r="B150" s="46">
+      <c r="B150" s="42">
         <v>1247</v>
       </c>
-      <c r="C150" s="46">
+      <c r="C150" s="42">
         <v>479</v>
       </c>
     </row>
@@ -3539,10 +3539,10 @@
       <c r="A151" s="9">
         <v>44065</v>
       </c>
-      <c r="B151" s="46">
+      <c r="B151" s="42">
         <v>1219</v>
       </c>
-      <c r="C151" s="46">
+      <c r="C151" s="42">
         <v>482</v>
       </c>
     </row>
@@ -3550,10 +3550,10 @@
       <c r="A152" s="9">
         <v>44066</v>
       </c>
-      <c r="B152" s="46">
+      <c r="B152" s="42">
         <v>1200</v>
       </c>
-      <c r="C152" s="46">
+      <c r="C152" s="42">
         <v>467</v>
       </c>
     </row>
@@ -3561,10 +3561,10 @@
       <c r="A153" s="9">
         <v>44067</v>
       </c>
-      <c r="B153" s="46">
+      <c r="B153" s="42">
         <v>1186</v>
       </c>
-      <c r="C153" s="46">
+      <c r="C153" s="42">
         <v>450</v>
       </c>
     </row>
@@ -3572,10 +3572,10 @@
       <c r="A154" s="9">
         <v>44068</v>
       </c>
-      <c r="B154" s="46">
+      <c r="B154" s="42">
         <v>1168</v>
       </c>
-      <c r="C154" s="46">
+      <c r="C154" s="42">
         <v>517</v>
       </c>
     </row>
@@ -3583,10 +3583,10 @@
       <c r="A155" s="9">
         <v>44069</v>
       </c>
-      <c r="B155" s="46">
+      <c r="B155" s="42">
         <v>1168</v>
       </c>
-      <c r="C155" s="46">
+      <c r="C155" s="42">
         <v>466</v>
       </c>
     </row>
@@ -3594,10 +3594,10 @@
       <c r="A156" s="9">
         <v>44070</v>
       </c>
-      <c r="B156" s="46">
+      <c r="B156" s="42">
         <v>1116</v>
       </c>
-      <c r="C156" s="46">
+      <c r="C156" s="42">
         <v>449</v>
       </c>
     </row>
@@ -3605,10 +3605,10 @@
       <c r="A157" s="9">
         <v>44071</v>
       </c>
-      <c r="B157" s="46">
+      <c r="B157" s="42">
         <v>1089</v>
       </c>
-      <c r="C157" s="46">
+      <c r="C157" s="42">
         <v>423</v>
       </c>
     </row>
@@ -3616,10 +3616,10 @@
       <c r="A158" s="9">
         <v>44072</v>
       </c>
-      <c r="B158" s="46">
+      <c r="B158" s="42">
         <v>1043</v>
       </c>
-      <c r="C158" s="46">
+      <c r="C158" s="42">
         <v>415</v>
       </c>
     </row>
@@ -3627,10 +3627,10 @@
       <c r="A159" s="9">
         <v>44073</v>
       </c>
-      <c r="B159" s="46">
+      <c r="B159" s="42">
         <v>1057</v>
       </c>
-      <c r="C159" s="46">
+      <c r="C159" s="42">
         <v>386</v>
       </c>
     </row>
@@ -3638,10 +3638,10 @@
       <c r="A160" s="9">
         <v>44074</v>
       </c>
-      <c r="B160" s="46">
+      <c r="B160" s="42">
         <v>1048</v>
       </c>
-      <c r="C160" s="46">
+      <c r="C160" s="42">
         <v>415</v>
       </c>
     </row>
@@ -3649,10 +3649,10 @@
       <c r="A161" s="9">
         <v>44075</v>
       </c>
-      <c r="B161" s="46">
+      <c r="B161" s="42">
         <v>1062</v>
       </c>
-      <c r="C161" s="46">
+      <c r="C161" s="42">
         <v>426</v>
       </c>
     </row>
@@ -3660,10 +3660,10 @@
       <c r="A162" s="9">
         <v>44076</v>
       </c>
-      <c r="B162" s="46">
+      <c r="B162" s="42">
         <v>992</v>
       </c>
-      <c r="C162" s="46">
+      <c r="C162" s="42">
         <v>386</v>
       </c>
     </row>
@@ -3671,10 +3671,10 @@
       <c r="A163" s="9">
         <v>44077</v>
       </c>
-      <c r="B163" s="46">
+      <c r="B163" s="42">
         <v>984</v>
       </c>
-      <c r="C163" s="46">
+      <c r="C163" s="42">
         <v>362</v>
       </c>
     </row>
@@ -3682,10 +3682,10 @@
       <c r="A164" s="9">
         <v>44078</v>
       </c>
-      <c r="B164" s="46">
+      <c r="B164" s="42">
         <v>966</v>
       </c>
-      <c r="C164" s="46">
+      <c r="C164" s="42">
         <v>355</v>
       </c>
     </row>
@@ -3693,10 +3693,10 @@
       <c r="A165" s="9">
         <v>44079</v>
       </c>
-      <c r="B165" s="46">
+      <c r="B165" s="42">
         <v>943</v>
       </c>
-      <c r="C165" s="46">
+      <c r="C165" s="42">
         <v>361</v>
       </c>
     </row>
@@ -3704,10 +3704,10 @@
       <c r="A166" s="9">
         <v>44080</v>
       </c>
-      <c r="B166" s="46">
+      <c r="B166" s="42">
         <v>942</v>
       </c>
-      <c r="C166" s="46">
+      <c r="C166" s="42">
         <v>372</v>
       </c>
     </row>
@@ -3715,10 +3715,10 @@
       <c r="A167" s="9">
         <v>44081</v>
       </c>
-      <c r="B167" s="46">
+      <c r="B167" s="42">
         <v>936</v>
       </c>
-      <c r="C167" s="46">
+      <c r="C167" s="42">
         <v>414</v>
       </c>
     </row>
@@ -3726,10 +3726,10 @@
       <c r="A168" s="9">
         <v>44082</v>
       </c>
-      <c r="B168" s="46">
+      <c r="B168" s="42">
         <v>940</v>
       </c>
-      <c r="C168" s="46">
+      <c r="C168" s="42">
         <v>415</v>
       </c>
     </row>
@@ -3737,10 +3737,10 @@
       <c r="A169" s="9">
         <v>44083</v>
       </c>
-      <c r="B169" s="46">
+      <c r="B169" s="42">
         <v>889</v>
       </c>
-      <c r="C169" s="46">
+      <c r="C169" s="42">
         <v>365</v>
       </c>
     </row>
@@ -3748,10 +3748,10 @@
       <c r="A170" s="9">
         <v>44084</v>
       </c>
-      <c r="B170" s="46">
+      <c r="B170" s="42">
         <v>877</v>
       </c>
-      <c r="C170" s="46">
+      <c r="C170" s="42">
         <v>342</v>
       </c>
     </row>
@@ -3759,10 +3759,10 @@
       <c r="A171" s="9">
         <v>44085</v>
       </c>
-      <c r="B171" s="46">
+      <c r="B171" s="42">
         <v>813</v>
       </c>
-      <c r="C171" s="46">
+      <c r="C171" s="42">
         <v>345</v>
       </c>
     </row>
@@ -3770,10 +3770,10 @@
       <c r="A172" s="9">
         <v>44086</v>
       </c>
-      <c r="B172" s="46">
+      <c r="B172" s="42">
         <v>775</v>
       </c>
-      <c r="C172" s="46">
+      <c r="C172" s="42">
         <v>375</v>
       </c>
     </row>
@@ -3781,10 +3781,10 @@
       <c r="A173" s="9">
         <v>44087</v>
       </c>
-      <c r="B173" s="46">
+      <c r="B173" s="42">
         <v>772</v>
       </c>
-      <c r="C173" s="46">
+      <c r="C173" s="42">
         <v>330</v>
       </c>
     </row>
@@ -3792,10 +3792,10 @@
       <c r="A174" s="9">
         <v>44088</v>
       </c>
-      <c r="B174" s="46">
+      <c r="B174" s="42">
         <v>804</v>
       </c>
-      <c r="C174" s="46">
+      <c r="C174" s="42">
         <v>343</v>
       </c>
     </row>
@@ -3803,10 +3803,10 @@
       <c r="A175" s="9">
         <v>44089</v>
       </c>
-      <c r="B175" s="46">
+      <c r="B175" s="42">
         <v>780</v>
       </c>
-      <c r="C175" s="46">
+      <c r="C175" s="42">
         <v>348</v>
       </c>
     </row>
@@ -3814,10 +3814,10 @@
       <c r="A176" s="9">
         <v>44090</v>
       </c>
-      <c r="B176" s="46">
+      <c r="B176" s="42">
         <v>739</v>
       </c>
-      <c r="C176" s="46">
+      <c r="C176" s="42">
         <v>379</v>
       </c>
     </row>
@@ -3825,10 +3825,10 @@
       <c r="A177" s="9">
         <v>44091</v>
       </c>
-      <c r="B177" s="46">
+      <c r="B177" s="42">
         <v>732</v>
       </c>
-      <c r="C177" s="46">
+      <c r="C177" s="42">
         <v>340</v>
       </c>
     </row>
@@ -3836,10 +3836,10 @@
       <c r="A178" s="9">
         <v>44092</v>
       </c>
-      <c r="B178" s="46">
+      <c r="B178" s="42">
         <v>765</v>
       </c>
-      <c r="C178" s="46">
+      <c r="C178" s="42">
         <v>363</v>
       </c>
     </row>
@@ -3847,10 +3847,10 @@
       <c r="A179" s="9">
         <v>44093</v>
       </c>
-      <c r="B179" s="46">
+      <c r="B179" s="42">
         <v>749</v>
       </c>
-      <c r="C179" s="46">
+      <c r="C179" s="42">
         <v>328</v>
       </c>
     </row>
@@ -3858,10 +3858,10 @@
       <c r="A180" s="9">
         <v>44094</v>
       </c>
-      <c r="B180" s="46">
+      <c r="B180" s="42">
         <v>745</v>
       </c>
-      <c r="C180" s="46">
+      <c r="C180" s="42">
         <v>368</v>
       </c>
     </row>
@@ -3869,10 +3869,10 @@
       <c r="A181" s="9">
         <v>44095</v>
       </c>
-      <c r="B181" s="46">
+      <c r="B181" s="42">
         <v>779</v>
       </c>
-      <c r="C181" s="46">
+      <c r="C181" s="42">
         <v>365</v>
       </c>
     </row>
@@ -3880,10 +3880,10 @@
       <c r="A182" s="9">
         <v>44096</v>
       </c>
-      <c r="B182" s="46">
+      <c r="B182" s="42">
         <v>753</v>
       </c>
-      <c r="C182" s="46">
+      <c r="C182" s="42">
         <v>392</v>
       </c>
     </row>
@@ -3891,10 +3891,10 @@
       <c r="A183" s="9">
         <v>44097</v>
       </c>
-      <c r="B183" s="46">
+      <c r="B183" s="42">
         <v>760</v>
       </c>
-      <c r="C183" s="46">
+      <c r="C183" s="42">
         <v>378</v>
       </c>
     </row>
@@ -3902,10 +3902,10 @@
       <c r="A184" s="9">
         <v>44098</v>
       </c>
-      <c r="B184" s="46">
+      <c r="B184" s="42">
         <v>715</v>
       </c>
-      <c r="C184" s="46">
+      <c r="C184" s="42">
         <v>319</v>
       </c>
     </row>
@@ -3913,10 +3913,10 @@
       <c r="A185" s="9">
         <v>44099</v>
       </c>
-      <c r="B185" s="46">
+      <c r="B185" s="42">
         <v>692</v>
       </c>
-      <c r="C185" s="46">
+      <c r="C185" s="42">
         <v>336</v>
       </c>
     </row>
@@ -3924,10 +3924,10 @@
       <c r="A186" s="9">
         <v>44100</v>
       </c>
-      <c r="B186" s="46">
+      <c r="B186" s="42">
         <v>687</v>
       </c>
-      <c r="C186" s="46">
+      <c r="C186" s="42">
         <v>371</v>
       </c>
     </row>
@@ -3935,10 +3935,10 @@
       <c r="A187" s="9">
         <v>44101</v>
       </c>
-      <c r="B187" s="46">
+      <c r="B187" s="42">
         <v>714</v>
       </c>
-      <c r="C187" s="46">
+      <c r="C187" s="42">
         <v>356</v>
       </c>
     </row>
@@ -3946,10 +3946,10 @@
       <c r="A188" s="9">
         <v>44102</v>
       </c>
-      <c r="B188" s="46">
+      <c r="B188" s="42">
         <v>734</v>
       </c>
-      <c r="C188" s="46">
+      <c r="C188" s="42">
         <v>291</v>
       </c>
     </row>
@@ -3957,10 +3957,10 @@
       <c r="A189" s="9">
         <v>44103</v>
       </c>
-      <c r="B189" s="46">
+      <c r="B189" s="42">
         <v>746</v>
       </c>
-      <c r="C189" s="46">
+      <c r="C189" s="42">
         <v>340</v>
       </c>
     </row>
@@ -3968,10 +3968,10 @@
       <c r="A190" s="9">
         <v>44104</v>
       </c>
-      <c r="B190" s="46">
+      <c r="B190" s="42">
         <v>730</v>
       </c>
-      <c r="C190" s="46">
+      <c r="C190" s="42">
         <v>371</v>
       </c>
     </row>
@@ -3979,10 +3979,10 @@
       <c r="A191" s="9">
         <v>44105</v>
       </c>
-      <c r="B191" s="46">
+      <c r="B191" s="42">
         <v>698</v>
       </c>
-      <c r="C191" s="46">
+      <c r="C191" s="42">
         <v>371</v>
       </c>
       <c r="J191" s="18">
@@ -3993,10 +3993,10 @@
       <c r="A192" s="9">
         <v>44106</v>
       </c>
-      <c r="B192" s="46">
+      <c r="B192" s="42">
         <v>673</v>
       </c>
-      <c r="C192" s="46">
+      <c r="C192" s="42">
         <v>324</v>
       </c>
       <c r="D192" s="18">
@@ -4016,10 +4016,10 @@
       <c r="A193" s="9">
         <v>44107</v>
       </c>
-      <c r="B193" s="46">
+      <c r="B193" s="42">
         <v>674</v>
       </c>
-      <c r="C193" s="46">
+      <c r="C193" s="42">
         <v>353</v>
       </c>
       <c r="D193" s="18">
@@ -4039,10 +4039,10 @@
       <c r="A194" s="9">
         <v>44108</v>
       </c>
-      <c r="B194" s="46">
+      <c r="B194" s="42">
         <v>685</v>
       </c>
-      <c r="C194" s="46">
+      <c r="C194" s="42">
         <v>373</v>
       </c>
       <c r="D194" s="18">
@@ -4062,10 +4062,10 @@
       <c r="A195" s="9">
         <v>44109</v>
       </c>
-      <c r="B195" s="46">
+      <c r="B195" s="42">
         <v>696</v>
       </c>
-      <c r="C195" s="46">
+      <c r="C195" s="42">
         <v>339</v>
       </c>
       <c r="D195" s="18">
@@ -4085,10 +4085,10 @@
       <c r="A196" s="9">
         <v>44110</v>
       </c>
-      <c r="B196" s="46">
+      <c r="B196" s="42">
         <v>709</v>
       </c>
-      <c r="C196" s="46">
+      <c r="C196" s="42">
         <v>351</v>
       </c>
       <c r="D196" s="18">
@@ -4108,10 +4108,10 @@
       <c r="A197" s="9">
         <v>44111</v>
       </c>
-      <c r="B197" s="46">
+      <c r="B197" s="42">
         <v>724</v>
       </c>
-      <c r="C197" s="46">
+      <c r="C197" s="42">
         <v>353</v>
       </c>
       <c r="D197" s="18">
@@ -4131,10 +4131,10 @@
       <c r="A198" s="9">
         <v>44112</v>
       </c>
-      <c r="B198" s="46">
+      <c r="B198" s="42">
         <v>701</v>
       </c>
-      <c r="C198" s="46">
+      <c r="C198" s="42">
         <v>358</v>
       </c>
       <c r="D198" s="18">
@@ -4154,10 +4154,10 @@
       <c r="A199" s="9">
         <v>44113</v>
       </c>
-      <c r="B199" s="46">
+      <c r="B199" s="42">
         <v>715</v>
       </c>
-      <c r="C199" s="46">
+      <c r="C199" s="42">
         <v>329</v>
       </c>
       <c r="D199" s="18">
@@ -4177,10 +4177,10 @@
       <c r="A200" s="9">
         <v>44114</v>
       </c>
-      <c r="B200" s="46">
+      <c r="B200" s="42">
         <v>693</v>
       </c>
-      <c r="C200" s="46">
+      <c r="C200" s="42">
         <v>360</v>
       </c>
       <c r="D200" s="18">
@@ -4200,10 +4200,10 @@
       <c r="A201" s="9">
         <v>44115</v>
       </c>
-      <c r="B201" s="46">
+      <c r="B201" s="42">
         <v>692</v>
       </c>
-      <c r="C201" s="46">
+      <c r="C201" s="42">
         <v>353</v>
       </c>
       <c r="D201" s="18">
@@ -4223,10 +4223,10 @@
       <c r="A202" s="9">
         <v>44116</v>
       </c>
-      <c r="B202" s="46">
+      <c r="B202" s="42">
         <v>720</v>
       </c>
-      <c r="C202" s="46">
+      <c r="C202" s="42">
         <v>356</v>
       </c>
       <c r="D202" s="18">
@@ -4246,10 +4246,10 @@
       <c r="A203" s="9">
         <v>44117</v>
       </c>
-      <c r="B203" s="46">
+      <c r="B203" s="42">
         <v>723</v>
       </c>
-      <c r="C203" s="46">
+      <c r="C203" s="42">
         <v>382</v>
       </c>
       <c r="D203" s="18">
@@ -4269,10 +4269,10 @@
       <c r="A204" s="9">
         <v>44118</v>
       </c>
-      <c r="B204" s="46">
+      <c r="B204" s="42">
         <v>735</v>
       </c>
-      <c r="C204" s="46">
+      <c r="C204" s="42">
         <v>372</v>
       </c>
       <c r="D204" s="18">
@@ -4292,10 +4292,10 @@
       <c r="A205" s="9">
         <v>44119</v>
       </c>
-      <c r="B205" s="46">
+      <c r="B205" s="42">
         <v>746</v>
       </c>
-      <c r="C205" s="46">
+      <c r="C205" s="42">
         <v>340</v>
       </c>
       <c r="D205" s="18">
@@ -4315,10 +4315,10 @@
       <c r="A206" s="9">
         <v>44120</v>
       </c>
-      <c r="B206" s="46">
+      <c r="B206" s="42">
         <v>752</v>
       </c>
-      <c r="C206" s="46">
+      <c r="C206" s="42">
         <v>324</v>
       </c>
       <c r="D206" s="18">
@@ -4338,10 +4338,10 @@
       <c r="A207" s="9">
         <v>44121</v>
       </c>
-      <c r="B207" s="46">
+      <c r="B207" s="42">
         <v>722</v>
       </c>
-      <c r="C207" s="46">
+      <c r="C207" s="42">
         <v>297</v>
       </c>
       <c r="D207" s="18">
@@ -4361,10 +4361,10 @@
       <c r="A208" s="9">
         <v>44122</v>
       </c>
-      <c r="B208" s="46">
+      <c r="B208" s="42">
         <v>730</v>
       </c>
-      <c r="C208" s="46">
+      <c r="C208" s="42">
         <v>312</v>
       </c>
       <c r="D208" s="18">
@@ -4384,10 +4384,10 @@
       <c r="A209" s="9">
         <v>44123</v>
       </c>
-      <c r="B209" s="46">
+      <c r="B209" s="42">
         <v>758</v>
       </c>
-      <c r="C209" s="46">
+      <c r="C209" s="42">
         <v>364</v>
       </c>
       <c r="D209" s="18">
@@ -4407,10 +4407,10 @@
       <c r="A210" s="9">
         <v>44124</v>
       </c>
-      <c r="B210" s="46">
+      <c r="B210" s="42">
         <v>777</v>
       </c>
-      <c r="C210" s="46">
+      <c r="C210" s="42">
         <v>322</v>
       </c>
       <c r="D210" s="18">
@@ -4430,10 +4430,10 @@
       <c r="A211" s="9">
         <v>44125</v>
       </c>
-      <c r="B211" s="46">
+      <c r="B211" s="42">
         <v>769</v>
       </c>
-      <c r="C211" s="46">
+      <c r="C211" s="42">
         <v>290</v>
       </c>
       <c r="D211" s="18">
@@ -4453,10 +4453,10 @@
       <c r="A212" s="9">
         <v>44126</v>
       </c>
-      <c r="B212" s="46">
+      <c r="B212" s="42">
         <v>770</v>
       </c>
-      <c r="C212" s="46">
+      <c r="C212" s="42">
         <v>262</v>
       </c>
       <c r="D212" s="18">
@@ -4476,10 +4476,10 @@
       <c r="A213" s="9">
         <v>44127</v>
       </c>
-      <c r="B213" s="46">
+      <c r="B213" s="42">
         <v>785</v>
       </c>
-      <c r="C213" s="46">
+      <c r="C213" s="42">
         <v>254</v>
       </c>
       <c r="D213" s="18">
@@ -4499,10 +4499,10 @@
       <c r="A214" s="9">
         <v>44128</v>
       </c>
-      <c r="B214" s="46">
+      <c r="B214" s="42">
         <v>767</v>
       </c>
-      <c r="C214" s="46">
+      <c r="C214" s="42">
         <v>294</v>
       </c>
       <c r="D214" s="18">
@@ -4522,10 +4522,10 @@
       <c r="A215" s="9">
         <v>44129</v>
       </c>
-      <c r="B215" s="46">
+      <c r="B215" s="42">
         <v>747</v>
       </c>
-      <c r="C215" s="46">
+      <c r="C215" s="42">
         <v>291</v>
       </c>
       <c r="D215" s="18">
@@ -4545,10 +4545,10 @@
       <c r="A216" s="9">
         <v>44130</v>
       </c>
-      <c r="B216" s="46">
+      <c r="B216" s="42">
         <v>755</v>
       </c>
-      <c r="C216" s="46">
+      <c r="C216" s="42">
         <v>276</v>
       </c>
       <c r="D216" s="18">
@@ -4568,10 +4568,10 @@
       <c r="A217" s="9">
         <v>44131</v>
       </c>
-      <c r="B217" s="46">
+      <c r="B217" s="42">
         <v>750</v>
       </c>
-      <c r="C217" s="46">
+      <c r="C217" s="42">
         <v>267</v>
       </c>
       <c r="D217" s="18">
@@ -4591,10 +4591,10 @@
       <c r="A218" s="9">
         <v>44132</v>
       </c>
-      <c r="B218" s="46">
+      <c r="B218" s="42">
         <v>743</v>
       </c>
-      <c r="C218" s="46">
+      <c r="C218" s="42">
         <v>290</v>
       </c>
       <c r="D218" s="18">
@@ -4609,7 +4609,7 @@
       <c r="J218" s="18">
         <v>1325.42857142857</v>
       </c>
-      <c r="L218" s="47">
+      <c r="L218" s="52">
         <v>0.13</v>
       </c>
     </row>
@@ -4617,10 +4617,10 @@
       <c r="A219" s="9">
         <v>44133</v>
       </c>
-      <c r="B219" s="46">
+      <c r="B219" s="42">
         <v>783</v>
       </c>
-      <c r="C219" s="46">
+      <c r="C219" s="42">
         <v>281</v>
       </c>
       <c r="D219" s="18">
@@ -4640,10 +4640,10 @@
       <c r="A220" s="9">
         <v>44134</v>
       </c>
-      <c r="B220" s="46">
+      <c r="B220" s="42">
         <v>799</v>
       </c>
-      <c r="C220" s="46">
+      <c r="C220" s="42">
         <v>295</v>
       </c>
       <c r="D220" s="18">
@@ -4663,10 +4663,10 @@
       <c r="A221" s="9">
         <v>44135</v>
       </c>
-      <c r="B221" s="46">
+      <c r="B221" s="42">
         <v>777</v>
       </c>
-      <c r="C221" s="46">
+      <c r="C221" s="42">
         <v>302</v>
       </c>
       <c r="D221" s="18">
@@ -4686,10 +4686,10 @@
       <c r="A222" s="9">
         <v>44136</v>
       </c>
-      <c r="B222" s="46">
+      <c r="B222" s="42">
         <v>798</v>
       </c>
-      <c r="C222" s="46">
+      <c r="C222" s="42">
         <v>258</v>
       </c>
       <c r="D222" s="18">
@@ -4709,10 +4709,10 @@
       <c r="A223" s="9">
         <v>44137</v>
       </c>
-      <c r="B223" s="46">
+      <c r="B223" s="42">
         <v>817</v>
       </c>
-      <c r="C223" s="46">
+      <c r="C223" s="42">
         <v>229</v>
       </c>
       <c r="D223" s="18">
@@ -4732,10 +4732,10 @@
       <c r="A224" s="9">
         <v>44138</v>
       </c>
-      <c r="B224" s="46">
+      <c r="B224" s="42">
         <v>825</v>
       </c>
-      <c r="C224" s="46">
+      <c r="C224" s="42">
         <v>303</v>
       </c>
       <c r="D224" s="18">
@@ -4755,10 +4755,10 @@
       <c r="A225" s="9">
         <v>44139</v>
       </c>
-      <c r="B225" s="46">
+      <c r="B225" s="42">
         <v>821</v>
       </c>
-      <c r="C225" s="46">
+      <c r="C225" s="42">
         <v>322</v>
       </c>
       <c r="D225" s="18">
@@ -4773,7 +4773,7 @@
       <c r="J225" s="18">
         <v>1700.57142857143</v>
       </c>
-      <c r="L225" s="47">
+      <c r="L225" s="52">
         <v>0.12</v>
       </c>
     </row>
@@ -4781,10 +4781,10 @@
       <c r="A226" s="9">
         <v>44140</v>
       </c>
-      <c r="B226" s="46">
+      <c r="B226" s="42">
         <v>840</v>
       </c>
-      <c r="C226" s="46">
+      <c r="C226" s="42">
         <v>292</v>
       </c>
       <c r="D226" s="18">
@@ -4804,10 +4804,10 @@
       <c r="A227" s="9">
         <v>44141</v>
       </c>
-      <c r="B227" s="46">
+      <c r="B227" s="42">
         <v>851</v>
       </c>
-      <c r="C227" s="46">
+      <c r="C227" s="42">
         <v>255</v>
       </c>
       <c r="D227" s="18">
@@ -4827,10 +4827,10 @@
       <c r="A228" s="9">
         <v>44142</v>
       </c>
-      <c r="B228" s="46">
+      <c r="B228" s="42">
         <v>855</v>
       </c>
-      <c r="C228" s="46">
+      <c r="C228" s="42">
         <v>278</v>
       </c>
       <c r="D228" s="18">
@@ -4850,10 +4850,10 @@
       <c r="A229" s="9">
         <v>44143</v>
       </c>
-      <c r="B229" s="46">
+      <c r="B229" s="42">
         <v>888</v>
       </c>
-      <c r="C229" s="46">
+      <c r="C229" s="42">
         <v>264</v>
       </c>
       <c r="D229" s="18">
@@ -4873,10 +4873,10 @@
       <c r="A230" s="9">
         <v>44144</v>
       </c>
-      <c r="B230" s="46">
+      <c r="B230" s="42">
         <v>903</v>
       </c>
-      <c r="C230" s="46">
+      <c r="C230" s="42">
         <v>306</v>
       </c>
       <c r="D230" s="18">
@@ -4888,10 +4888,10 @@
       <c r="F230" s="18">
         <v>7938</v>
       </c>
-      <c r="H230" s="46">
+      <c r="H230" s="42">
         <v>118.71428571428601</v>
       </c>
-      <c r="I230" s="46">
+      <c r="I230" s="42">
         <v>162.57142857142901</v>
       </c>
       <c r="J230" s="18">
@@ -4902,10 +4902,10 @@
       <c r="A231" s="9">
         <v>44145</v>
       </c>
-      <c r="B231" s="46">
+      <c r="B231" s="42">
         <v>953</v>
       </c>
-      <c r="C231" s="46">
+      <c r="C231" s="42">
         <v>317</v>
       </c>
       <c r="D231" s="18">
@@ -4925,10 +4925,10 @@
       <c r="A232" s="9">
         <v>44146</v>
       </c>
-      <c r="B232" s="46">
+      <c r="B232" s="42">
         <v>942</v>
       </c>
-      <c r="C232" s="46">
+      <c r="C232" s="42">
         <v>323</v>
       </c>
       <c r="D232" s="18">
@@ -4943,7 +4943,7 @@
       <c r="J232" s="18">
         <v>2733.4285714285702</v>
       </c>
-      <c r="L232" s="47">
+      <c r="L232" s="52">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -4951,10 +4951,10 @@
       <c r="A233" s="9">
         <v>44147</v>
       </c>
-      <c r="B233" s="46">
+      <c r="B233" s="42">
         <v>966</v>
       </c>
-      <c r="C233" s="46">
+      <c r="C233" s="42">
         <v>314</v>
       </c>
       <c r="D233" s="18">
@@ -4974,10 +4974,10 @@
       <c r="A234" s="9">
         <v>44148</v>
       </c>
-      <c r="B234" s="46">
+      <c r="B234" s="42">
         <v>1014</v>
       </c>
-      <c r="C234" s="46">
+      <c r="C234" s="42">
         <v>282</v>
       </c>
       <c r="D234" s="18">
@@ -4997,10 +4997,10 @@
       <c r="A235" s="9">
         <v>44149</v>
       </c>
-      <c r="B235" s="46">
+      <c r="B235" s="42">
         <v>1049</v>
       </c>
-      <c r="C235" s="46">
+      <c r="C235" s="42">
         <v>346</v>
       </c>
       <c r="D235" s="18">
@@ -5020,10 +5020,10 @@
       <c r="A236" s="9">
         <v>44150</v>
       </c>
-      <c r="B236" s="46">
+      <c r="B236" s="42">
         <v>1126</v>
       </c>
-      <c r="C236" s="46">
+      <c r="C236" s="42">
         <v>277</v>
       </c>
       <c r="D236" s="18">
@@ -5043,10 +5043,10 @@
       <c r="A237" s="9">
         <v>44151</v>
       </c>
-      <c r="B237" s="46">
+      <c r="B237" s="42">
         <v>1188</v>
       </c>
-      <c r="C237" s="46">
+      <c r="C237" s="42">
         <v>286</v>
       </c>
       <c r="D237" s="18">
@@ -5058,10 +5058,10 @@
       <c r="F237" s="18">
         <v>8289</v>
       </c>
-      <c r="H237" s="46">
+      <c r="H237" s="42">
         <v>166</v>
       </c>
-      <c r="I237" s="46">
+      <c r="I237" s="42">
         <v>171</v>
       </c>
       <c r="J237" s="18">
@@ -5072,10 +5072,10 @@
       <c r="A238" s="9">
         <v>44152</v>
       </c>
-      <c r="B238" s="46">
+      <c r="B238" s="42">
         <v>1238</v>
       </c>
-      <c r="C238" s="46">
+      <c r="C238" s="42">
         <v>304</v>
       </c>
       <c r="D238" s="18">
@@ -5095,10 +5095,10 @@
       <c r="A239" s="9">
         <v>44153</v>
       </c>
-      <c r="B239" s="46">
+      <c r="B239" s="42">
         <v>1298</v>
       </c>
-      <c r="C239" s="46">
+      <c r="C239" s="42">
         <v>330</v>
       </c>
       <c r="D239" s="18">
@@ -5113,7 +5113,7 @@
       <c r="J239" s="18">
         <v>3942.5714285714298</v>
       </c>
-      <c r="L239" s="47">
+      <c r="L239" s="52">
         <v>0.17</v>
       </c>
     </row>
@@ -5121,10 +5121,10 @@
       <c r="A240" s="9">
         <v>44154</v>
       </c>
-      <c r="B240" s="46">
+      <c r="B240" s="42">
         <v>1391</v>
       </c>
-      <c r="C240" s="46">
+      <c r="C240" s="42">
         <v>304</v>
       </c>
       <c r="D240" s="18">
@@ -5144,10 +5144,10 @@
       <c r="A241" s="9">
         <v>44155</v>
       </c>
-      <c r="B241" s="46">
+      <c r="B241" s="42">
         <v>1401</v>
       </c>
-      <c r="C241" s="46">
+      <c r="C241" s="42">
         <v>317</v>
       </c>
       <c r="D241" s="18">
@@ -5167,10 +5167,10 @@
       <c r="A242" s="9">
         <v>44156</v>
       </c>
-      <c r="B242" s="46">
+      <c r="B242" s="42">
         <v>1482</v>
       </c>
-      <c r="C242" s="46">
+      <c r="C242" s="42">
         <v>346</v>
       </c>
       <c r="D242" s="18">
@@ -5190,10 +5190,10 @@
       <c r="A243" s="9">
         <v>44157</v>
       </c>
-      <c r="B243" s="46">
+      <c r="B243" s="42">
         <v>1575</v>
       </c>
-      <c r="C243" s="46">
+      <c r="C243" s="42">
         <v>344</v>
       </c>
       <c r="D243" s="18">
@@ -5213,10 +5213,10 @@
       <c r="A244" s="9">
         <v>44158</v>
       </c>
-      <c r="B244" s="46">
+      <c r="B244" s="42">
         <v>1682</v>
       </c>
-      <c r="C244" s="46">
+      <c r="C244" s="42">
         <v>296</v>
       </c>
       <c r="D244" s="18">
@@ -5228,10 +5228,10 @@
       <c r="F244" s="18">
         <v>8791</v>
       </c>
-      <c r="H244" s="46">
+      <c r="H244" s="42">
         <v>247.42857142857099</v>
       </c>
-      <c r="I244" s="46">
+      <c r="I244" s="42">
         <v>168.857142857143</v>
       </c>
       <c r="J244" s="18">
@@ -5242,10 +5242,10 @@
       <c r="A245" s="9">
         <v>44159</v>
       </c>
-      <c r="B245" s="46">
+      <c r="B245" s="42">
         <v>1809</v>
       </c>
-      <c r="C245" s="46">
+      <c r="C245" s="42">
         <v>388</v>
       </c>
       <c r="D245" s="18">
@@ -5265,10 +5265,10 @@
       <c r="A246" s="9">
         <v>44160</v>
       </c>
-      <c r="B246" s="46">
+      <c r="B246" s="42">
         <v>1893</v>
       </c>
-      <c r="C246" s="46">
+      <c r="C246" s="42">
         <v>301</v>
       </c>
       <c r="D246" s="18">
@@ -5283,7 +5283,7 @@
       <c r="J246" s="18">
         <v>5011.1428571428596</v>
       </c>
-      <c r="L246" s="47">
+      <c r="L246" s="52">
         <v>0.2</v>
       </c>
     </row>
@@ -5291,10 +5291,10 @@
       <c r="A247" s="9">
         <v>44161</v>
       </c>
-      <c r="B247" s="46">
+      <c r="B247" s="42">
         <v>1951</v>
       </c>
-      <c r="C247" s="46">
+      <c r="C247" s="42">
         <v>301</v>
       </c>
       <c r="D247" s="18">
@@ -5311,10 +5311,10 @@
       <c r="A248" s="9">
         <v>44162</v>
       </c>
-      <c r="B248" s="46">
+      <c r="B248" s="42">
         <v>2049</v>
       </c>
-      <c r="C248" s="46">
+      <c r="C248" s="42">
         <v>299</v>
       </c>
       <c r="D248" s="18">
@@ -5331,10 +5331,10 @@
       <c r="A249" s="9">
         <v>44163</v>
       </c>
-      <c r="B249" s="46">
+      <c r="B249" s="42">
         <v>2185</v>
       </c>
-      <c r="C249" s="46">
+      <c r="C249" s="42">
         <v>328</v>
       </c>
       <c r="D249" s="18">
@@ -5354,10 +5354,10 @@
       <c r="A250" s="9">
         <v>44164</v>
       </c>
-      <c r="B250" s="46">
+      <c r="B250" s="42">
         <v>2316</v>
       </c>
-      <c r="C250" s="46">
+      <c r="C250" s="42">
         <v>335</v>
       </c>
       <c r="D250" s="18">
@@ -5377,10 +5377,10 @@
       <c r="A251" s="9">
         <v>44165</v>
       </c>
-      <c r="B251" s="46">
+      <c r="B251" s="42">
         <v>2439</v>
       </c>
-      <c r="C251" s="46">
+      <c r="C251" s="42">
         <v>304</v>
       </c>
       <c r="D251" s="18">
@@ -5392,10 +5392,10 @@
       <c r="F251" s="18">
         <v>9486</v>
       </c>
-      <c r="H251" s="46">
+      <c r="H251" s="42">
         <v>323.142857142857</v>
       </c>
-      <c r="I251" s="46">
+      <c r="I251" s="42">
         <v>165.57142857142901</v>
       </c>
       <c r="J251" s="18">
@@ -5406,10 +5406,10 @@
       <c r="A252" s="9">
         <v>44166</v>
       </c>
-      <c r="B252" s="46">
+      <c r="B252" s="42">
         <v>2572</v>
       </c>
-      <c r="C252" s="46">
+      <c r="C252" s="42">
         <v>310</v>
       </c>
       <c r="D252" s="18">
@@ -5429,10 +5429,10 @@
       <c r="A253" s="9">
         <v>44167</v>
       </c>
-      <c r="B253" s="46">
+      <c r="B253" s="42">
         <v>2668</v>
       </c>
-      <c r="C253" s="46">
+      <c r="C253" s="42">
         <v>336</v>
       </c>
       <c r="D253" s="18">
@@ -5447,7 +5447,7 @@
       <c r="J253" s="18">
         <v>8528.7999999999993</v>
       </c>
-      <c r="L253" s="47">
+      <c r="L253" s="52">
         <v>0.21</v>
       </c>
     </row>
@@ -5455,10 +5455,10 @@
       <c r="A254" s="9">
         <v>44168</v>
       </c>
-      <c r="B254" s="46">
+      <c r="B254" s="42">
         <v>2769</v>
       </c>
-      <c r="C254" s="46">
+      <c r="C254" s="42">
         <v>328</v>
       </c>
       <c r="D254" s="18">
@@ -5478,10 +5478,10 @@
       <c r="A255" s="9">
         <v>44169</v>
       </c>
-      <c r="B255" s="46">
+      <c r="B255" s="42">
         <v>2878</v>
       </c>
-      <c r="C255" s="46">
+      <c r="C255" s="42">
         <v>319</v>
       </c>
       <c r="D255" s="18">
@@ -5501,10 +5501,10 @@
       <c r="A256" s="9">
         <v>44170</v>
       </c>
-      <c r="B256" s="46">
+      <c r="B256" s="42">
         <v>2988</v>
       </c>
-      <c r="C256" s="46">
+      <c r="C256" s="42">
         <v>340</v>
       </c>
       <c r="D256" s="18">
@@ -5524,10 +5524,10 @@
       <c r="A257" s="9">
         <v>44171</v>
       </c>
-      <c r="B257" s="46">
+      <c r="B257" s="42">
         <v>3113</v>
       </c>
-      <c r="C257" s="46">
+      <c r="C257" s="42">
         <v>377</v>
       </c>
       <c r="D257" s="18">
@@ -5547,10 +5547,10 @@
       <c r="A258" s="9">
         <v>44172</v>
       </c>
-      <c r="B258" s="46">
+      <c r="B258" s="42">
         <v>3299</v>
       </c>
-      <c r="C258" s="46">
+      <c r="C258" s="42">
         <v>354</v>
       </c>
       <c r="D258" s="18">
@@ -5562,10 +5562,10 @@
       <c r="F258" s="18">
         <v>10487</v>
       </c>
-      <c r="H258" s="46">
+      <c r="H258" s="42">
         <v>459.57142857142901</v>
       </c>
-      <c r="I258" s="46">
+      <c r="I258" s="42">
         <v>179.57142857142901</v>
       </c>
       <c r="J258" s="18">
@@ -5576,10 +5576,10 @@
       <c r="A259" s="9">
         <v>44173</v>
       </c>
-      <c r="B259" s="46">
+      <c r="B259" s="42">
         <v>3433</v>
       </c>
-      <c r="C259" s="46">
+      <c r="C259" s="42">
         <v>337</v>
       </c>
       <c r="D259" s="18">
@@ -5599,10 +5599,10 @@
       <c r="A260" s="9">
         <v>44174</v>
       </c>
-      <c r="B260" s="46">
+      <c r="B260" s="42">
         <v>3624</v>
       </c>
-      <c r="C260" s="46">
+      <c r="C260" s="42">
         <v>370</v>
       </c>
       <c r="D260" s="18">
@@ -5617,7 +5617,7 @@
       <c r="J260" s="18">
         <v>10540.857142857099</v>
       </c>
-      <c r="L260" s="47">
+      <c r="L260" s="52">
         <v>0.24</v>
       </c>
     </row>
@@ -5625,10 +5625,10 @@
       <c r="A261" s="9">
         <v>44175</v>
       </c>
-      <c r="B261" s="46">
+      <c r="B261" s="42">
         <v>3850</v>
       </c>
-      <c r="C261" s="46">
+      <c r="C261" s="42">
         <v>323</v>
       </c>
       <c r="D261" s="18">
@@ -5648,10 +5648,10 @@
       <c r="A262" s="9">
         <v>44176</v>
       </c>
-      <c r="B262" s="46">
+      <c r="B262" s="42">
         <v>4009</v>
       </c>
-      <c r="C262" s="46">
+      <c r="C262" s="42">
         <v>353</v>
       </c>
       <c r="D262" s="18">
@@ -5671,10 +5671,10 @@
       <c r="A263" s="9">
         <v>44177</v>
       </c>
-      <c r="B263" s="46">
+      <c r="B263" s="42">
         <v>4203</v>
       </c>
-      <c r="C263" s="46">
+      <c r="C263" s="42">
         <v>365</v>
       </c>
       <c r="D263" s="18">
@@ -5694,10 +5694,10 @@
       <c r="A264" s="9">
         <v>44178</v>
       </c>
-      <c r="B264" s="46">
+      <c r="B264" s="42">
         <v>4403</v>
       </c>
-      <c r="C264" s="46">
+      <c r="C264" s="42">
         <v>372</v>
       </c>
       <c r="D264" s="18">
@@ -5717,10 +5717,10 @@
       <c r="A265" s="9">
         <v>44179</v>
       </c>
-      <c r="B265" s="46">
+      <c r="B265" s="42">
         <v>4656</v>
       </c>
-      <c r="C265" s="46">
+      <c r="C265" s="42">
         <v>314</v>
       </c>
       <c r="D265" s="18">
@@ -5732,10 +5732,10 @@
       <c r="F265" s="18">
         <v>12076</v>
       </c>
-      <c r="H265" s="46">
+      <c r="H265" s="42">
         <v>649.57142857142901</v>
       </c>
-      <c r="I265" s="46">
+      <c r="I265" s="42">
         <v>175.142857142857</v>
       </c>
       <c r="J265" s="18">
@@ -5746,10 +5746,10 @@
       <c r="A266" s="9">
         <v>44180</v>
       </c>
-      <c r="B266" s="46">
+      <c r="B266" s="42">
         <v>4864</v>
       </c>
-      <c r="C266" s="46">
+      <c r="C266" s="42">
         <v>344</v>
       </c>
       <c r="D266" s="18">
@@ -5769,10 +5769,10 @@
       <c r="A267" s="9">
         <v>44181</v>
       </c>
-      <c r="B267" s="46">
+      <c r="B267" s="42">
         <v>5100</v>
       </c>
-      <c r="C267" s="46">
+      <c r="C267" s="42">
         <v>366</v>
       </c>
       <c r="D267" s="18">
@@ -5787,7 +5787,7 @@
       <c r="J267" s="18">
         <v>13806.285714285699</v>
       </c>
-      <c r="L267" s="47">
+      <c r="L267" s="52">
         <v>0.26</v>
       </c>
     </row>
@@ -5795,10 +5795,10 @@
       <c r="A268" s="9">
         <v>44182</v>
       </c>
-      <c r="B268" s="46">
+      <c r="B268" s="42">
         <v>5424</v>
       </c>
-      <c r="C268" s="46">
+      <c r="C268" s="42">
         <v>339</v>
       </c>
       <c r="D268" s="18">
@@ -5818,10 +5818,10 @@
       <c r="A269" s="9">
         <v>44183</v>
       </c>
-      <c r="B269" s="46">
+      <c r="B269" s="42">
         <v>5549</v>
       </c>
-      <c r="C269" s="46">
+      <c r="C269" s="42">
         <v>323</v>
       </c>
       <c r="D269" s="18">
@@ -5841,10 +5841,10 @@
       <c r="A270" s="9">
         <v>44184</v>
       </c>
-      <c r="B270" s="46">
+      <c r="B270" s="42">
         <v>5709</v>
       </c>
-      <c r="C270" s="46">
+      <c r="C270" s="42">
         <v>309</v>
       </c>
       <c r="D270" s="18">
@@ -5864,10 +5864,10 @@
       <c r="A271" s="9">
         <v>44185</v>
       </c>
-      <c r="B271" s="46">
+      <c r="B271" s="42">
         <v>5866</v>
       </c>
-      <c r="C271" s="46">
+      <c r="C271" s="42">
         <v>358</v>
       </c>
       <c r="D271" s="18">
@@ -5887,10 +5887,10 @@
       <c r="A272" s="9">
         <v>44186</v>
       </c>
-      <c r="B272" s="46">
+      <c r="B272" s="42">
         <v>6155</v>
       </c>
-      <c r="C272" s="46">
+      <c r="C272" s="42">
         <v>305</v>
       </c>
       <c r="D272" s="18">
@@ -5902,10 +5902,10 @@
       <c r="F272" s="18">
         <v>14090</v>
       </c>
-      <c r="H272" s="46">
+      <c r="H272" s="42">
         <v>788.71428571428601</v>
       </c>
-      <c r="I272" s="46">
+      <c r="I272" s="42">
         <v>172.857142857143</v>
       </c>
       <c r="J272" s="18">
@@ -5916,10 +5916,10 @@
       <c r="A273" s="9">
         <v>44187</v>
       </c>
-      <c r="B273" s="46">
+      <c r="B273" s="42">
         <v>6499</v>
       </c>
-      <c r="C273" s="46">
+      <c r="C273" s="42">
         <v>321</v>
       </c>
       <c r="D273" s="18">
@@ -5939,10 +5939,10 @@
       <c r="A274" s="9">
         <v>44188</v>
       </c>
-      <c r="B274" s="46">
+      <c r="B274" s="42">
         <v>6708</v>
       </c>
-      <c r="C274" s="46">
+      <c r="C274" s="42">
         <v>292</v>
       </c>
       <c r="D274" s="18">
@@ -5957,7 +5957,7 @@
       <c r="J274" s="18">
         <v>14985</v>
       </c>
-      <c r="L274" s="47">
+      <c r="L274" s="52">
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -5965,10 +5965,10 @@
       <c r="A275" s="9">
         <v>44189</v>
       </c>
-      <c r="B275" s="46">
+      <c r="B275" s="42">
         <v>6770</v>
       </c>
-      <c r="C275" s="46">
+      <c r="C275" s="42">
         <v>286</v>
       </c>
       <c r="D275" s="18">
@@ -5988,10 +5988,10 @@
       <c r="A276" s="9">
         <v>44190</v>
       </c>
-      <c r="B276" s="46">
+      <c r="B276" s="42">
         <v>6815</v>
       </c>
-      <c r="C276" s="46">
+      <c r="C276" s="42">
         <v>309</v>
       </c>
       <c r="D276" s="18">
@@ -6003,7 +6003,7 @@
       <c r="F276" s="18">
         <v>15168</v>
       </c>
-      <c r="L276" s="47">
+      <c r="L276" s="52">
         <v>0.35</v>
       </c>
     </row>
@@ -6011,10 +6011,10 @@
       <c r="A277" s="9">
         <v>44191</v>
       </c>
-      <c r="B277" s="46">
+      <c r="B277" s="42">
         <v>6914</v>
       </c>
-      <c r="C277" s="46">
+      <c r="C277" s="42">
         <v>303</v>
       </c>
       <c r="D277" s="18">
@@ -6034,10 +6034,10 @@
       <c r="A278" s="9">
         <v>44192</v>
       </c>
-      <c r="B278" s="46">
+      <c r="B278" s="42">
         <v>7181</v>
       </c>
-      <c r="C278" s="46">
+      <c r="C278" s="42">
         <v>332</v>
       </c>
       <c r="D278" s="18">
@@ -6057,10 +6057,10 @@
       <c r="A279" s="9">
         <v>44193</v>
       </c>
-      <c r="B279" s="46">
+      <c r="B279" s="42">
         <v>7415</v>
       </c>
-      <c r="C279" s="46">
+      <c r="C279" s="42">
         <v>297</v>
       </c>
       <c r="D279" s="18">
@@ -6072,10 +6072,10 @@
       <c r="F279" s="18">
         <v>16047</v>
       </c>
-      <c r="H279" s="46">
+      <c r="H279" s="42">
         <v>774.28571428571399</v>
       </c>
-      <c r="I279" s="46">
+      <c r="I279" s="42">
         <v>156.142857142857</v>
       </c>
       <c r="J279" s="18">
@@ -6086,10 +6086,10 @@
       <c r="A280" s="9">
         <v>44194</v>
       </c>
-      <c r="B280" s="46">
+      <c r="B280" s="42">
         <v>7546</v>
       </c>
-      <c r="C280" s="46">
+      <c r="C280" s="42">
         <v>279</v>
       </c>
       <c r="D280" s="18">
@@ -6109,10 +6109,10 @@
       <c r="A281" s="9">
         <v>44195</v>
       </c>
-      <c r="B281" s="46">
+      <c r="B281" s="42">
         <v>7628</v>
       </c>
-      <c r="C281" s="46">
+      <c r="C281" s="42">
         <v>300</v>
       </c>
       <c r="D281" s="18">
@@ -6132,10 +6132,10 @@
       <c r="A282" s="9">
         <v>44196</v>
       </c>
-      <c r="B282" s="46">
+      <c r="B282" s="42">
         <v>7627</v>
       </c>
-      <c r="C282" s="46">
+      <c r="C282" s="42">
         <v>270</v>
       </c>
       <c r="D282" s="18">
@@ -6155,10 +6155,10 @@
       <c r="A283" s="9">
         <v>44197</v>
       </c>
-      <c r="B283" s="46">
+      <c r="B283" s="42">
         <v>7544</v>
       </c>
-      <c r="C283" s="46">
+      <c r="C283" s="42">
         <v>280</v>
       </c>
       <c r="D283" s="18">
@@ -6170,7 +6170,7 @@
       <c r="F283" s="18">
         <v>17181</v>
       </c>
-      <c r="L283" s="47">
+      <c r="L283" s="52">
         <v>0.36</v>
       </c>
     </row>
@@ -6178,10 +6178,10 @@
       <c r="A284" s="9">
         <v>44198</v>
       </c>
-      <c r="B284" s="46">
+      <c r="B284" s="42">
         <v>7697</v>
       </c>
-      <c r="C284" s="46">
+      <c r="C284" s="42">
         <v>274</v>
       </c>
       <c r="D284" s="18">
@@ -6201,10 +6201,10 @@
       <c r="A285" s="9">
         <v>44199</v>
       </c>
-      <c r="B285" s="46">
+      <c r="B285" s="42">
         <v>7898</v>
       </c>
-      <c r="C285" s="46">
+      <c r="C285" s="42">
         <v>305</v>
       </c>
       <c r="D285" s="18">
@@ -6224,10 +6224,10 @@
       <c r="A286" s="9">
         <v>44200</v>
       </c>
-      <c r="B286" s="46">
+      <c r="B286" s="42">
         <v>8023</v>
       </c>
-      <c r="C286" s="46">
+      <c r="C286" s="42">
         <v>295</v>
       </c>
       <c r="D286" s="18">
@@ -6239,10 +6239,10 @@
       <c r="F286" s="18">
         <v>18059</v>
       </c>
-      <c r="H286" s="46">
+      <c r="H286" s="42">
         <v>821.71428571428601</v>
       </c>
-      <c r="I286" s="46">
+      <c r="I286" s="42">
         <v>170.857142857143</v>
       </c>
       <c r="J286" s="18">
@@ -6253,10 +6253,10 @@
       <c r="A287" s="9">
         <v>44201</v>
       </c>
-      <c r="B287" s="46">
+      <c r="B287" s="42">
         <v>8098</v>
       </c>
-      <c r="C287" s="46">
+      <c r="C287" s="42">
         <v>324</v>
       </c>
       <c r="D287" s="18">
@@ -6276,10 +6276,10 @@
       <c r="A288" s="9">
         <v>44202</v>
       </c>
-      <c r="B288" s="46">
+      <c r="B288" s="42">
         <v>8074</v>
       </c>
-      <c r="C288" s="46">
+      <c r="C288" s="42">
         <v>311</v>
       </c>
       <c r="D288" s="18">
@@ -6299,10 +6299,10 @@
       <c r="A289" s="9">
         <v>44203</v>
       </c>
-      <c r="B289" s="46">
+      <c r="B289" s="42">
         <v>7966</v>
       </c>
-      <c r="C289" s="46">
+      <c r="C289" s="42">
         <v>327</v>
       </c>
       <c r="D289" s="18">
@@ -6322,10 +6322,10 @@
       <c r="A290" s="9">
         <v>44204</v>
       </c>
-      <c r="B290" s="46">
+      <c r="B290" s="42">
         <v>7964</v>
       </c>
-      <c r="C290" s="46">
+      <c r="C290" s="42">
         <v>289</v>
       </c>
       <c r="D290" s="18">
@@ -6340,7 +6340,7 @@
       <c r="J290" s="18">
         <v>16183.285714285699</v>
       </c>
-      <c r="L290" s="47">
+      <c r="L290" s="52">
         <v>0.37</v>
       </c>
     </row>
@@ -6348,10 +6348,10 @@
       <c r="A291" s="9">
         <v>44205</v>
       </c>
-      <c r="B291" s="46">
+      <c r="B291" s="42">
         <v>7910</v>
       </c>
-      <c r="C291" s="46">
+      <c r="C291" s="42">
         <v>280</v>
       </c>
       <c r="D291" s="18">
@@ -6371,10 +6371,10 @@
       <c r="A292" s="9">
         <v>44206</v>
       </c>
-      <c r="B292" s="46">
+      <c r="B292" s="42">
         <v>7926</v>
       </c>
-      <c r="C292" s="46">
+      <c r="C292" s="42">
         <v>344</v>
       </c>
       <c r="D292" s="18">
@@ -6394,10 +6394,10 @@
       <c r="A293" s="9">
         <v>44207</v>
       </c>
-      <c r="B293" s="46">
+      <c r="B293" s="42">
         <v>7949</v>
       </c>
-      <c r="C293" s="46">
+      <c r="C293" s="42">
         <v>330</v>
       </c>
       <c r="D293" s="18">
@@ -6409,10 +6409,10 @@
       <c r="F293" s="18">
         <v>19732</v>
       </c>
-      <c r="H293" s="46">
+      <c r="H293" s="42">
         <v>746.71428571428601</v>
       </c>
-      <c r="I293" s="46">
+      <c r="I293" s="42">
         <v>175.57142857142901</v>
       </c>
       <c r="J293" s="18">
@@ -6423,10 +6423,10 @@
       <c r="A294" s="9">
         <v>44208</v>
       </c>
-      <c r="B294" s="46">
+      <c r="B294" s="42">
         <v>7906</v>
       </c>
-      <c r="C294" s="46">
+      <c r="C294" s="42">
         <v>295</v>
       </c>
       <c r="D294" s="18">
@@ -6446,10 +6446,10 @@
       <c r="A295" s="9">
         <v>44209</v>
       </c>
-      <c r="B295" s="46">
+      <c r="B295" s="42">
         <v>7715</v>
       </c>
-      <c r="C295" s="46">
+      <c r="C295" s="42">
         <v>371</v>
       </c>
       <c r="D295" s="18">
@@ -6469,10 +6469,10 @@
       <c r="A296" s="9">
         <v>44210</v>
       </c>
-      <c r="B296" s="46">
+      <c r="B296" s="42">
         <v>7597</v>
       </c>
-      <c r="C296" s="46">
+      <c r="C296" s="42">
         <v>300</v>
       </c>
       <c r="D296" s="18">
@@ -6492,10 +6492,10 @@
       <c r="A297" s="9">
         <v>44211</v>
       </c>
-      <c r="B297" s="46">
+      <c r="B297" s="42">
         <v>7498</v>
       </c>
-      <c r="C297" s="46">
+      <c r="C297" s="42">
         <v>328</v>
       </c>
       <c r="D297" s="18">
@@ -6510,7 +6510,7 @@
       <c r="J297" s="18">
         <v>10879.4285714286</v>
       </c>
-      <c r="L297" s="47">
+      <c r="L297" s="52">
         <v>0.39</v>
       </c>
     </row>
@@ -6518,10 +6518,10 @@
       <c r="A298" s="9">
         <v>44212</v>
       </c>
-      <c r="B298" s="46">
+      <c r="B298" s="42">
         <v>7328</v>
       </c>
-      <c r="C298" s="46">
+      <c r="C298" s="42">
         <v>296</v>
       </c>
       <c r="D298" s="18">
@@ -6541,10 +6541,10 @@
       <c r="A299" s="9">
         <v>44213</v>
       </c>
-      <c r="B299" s="46">
+      <c r="B299" s="42">
         <v>7322</v>
       </c>
-      <c r="C299" s="46">
+      <c r="C299" s="42">
         <v>302</v>
       </c>
       <c r="D299" s="18">
@@ -6564,10 +6564,10 @@
       <c r="A300" s="9">
         <v>44214</v>
       </c>
-      <c r="B300" s="46">
+      <c r="B300" s="42">
         <v>7253</v>
       </c>
-      <c r="C300" s="46">
+      <c r="C300" s="42">
         <v>347</v>
       </c>
       <c r="D300" s="18">
@@ -6579,10 +6579,10 @@
       <c r="F300" s="18">
         <v>20912</v>
       </c>
-      <c r="H300" s="46">
+      <c r="H300" s="42">
         <v>674.28571428571399</v>
       </c>
-      <c r="I300" s="46">
+      <c r="I300" s="42">
         <v>154.28571428571399</v>
       </c>
       <c r="J300" s="18">
@@ -6593,10 +6593,10 @@
       <c r="A301" s="9">
         <v>44215</v>
       </c>
-      <c r="B301" s="46">
+      <c r="B301" s="42">
         <v>7263</v>
       </c>
-      <c r="C301" s="46">
+      <c r="C301" s="42">
         <v>308</v>
       </c>
       <c r="D301" s="18">
@@ -6616,10 +6616,10 @@
       <c r="A302" s="9">
         <v>44216</v>
       </c>
-      <c r="B302" s="46">
+      <c r="B302" s="42">
         <v>7073</v>
       </c>
-      <c r="C302" s="46">
+      <c r="C302" s="42">
         <v>340</v>
       </c>
       <c r="D302" s="18">
@@ -6639,10 +6639,10 @@
       <c r="A303" s="9">
         <v>44217</v>
       </c>
-      <c r="B303" s="46">
+      <c r="B303" s="42">
         <v>6881</v>
       </c>
-      <c r="C303" s="46">
+      <c r="C303" s="42">
         <v>345</v>
       </c>
       <c r="D303" s="18">
@@ -6662,10 +6662,10 @@
       <c r="A304" s="9">
         <v>44218</v>
       </c>
-      <c r="B304" s="46">
+      <c r="B304" s="42">
         <v>6697</v>
       </c>
-      <c r="C304" s="46">
+      <c r="C304" s="42">
         <v>317</v>
       </c>
       <c r="D304" s="18">
@@ -6680,7 +6680,7 @@
       <c r="J304" s="18">
         <v>7132.1428571428596</v>
       </c>
-      <c r="L304" s="47">
+      <c r="L304" s="52">
         <v>0.4</v>
       </c>
     </row>
@@ -6688,10 +6688,10 @@
       <c r="A305" s="9">
         <v>44219</v>
       </c>
-      <c r="B305" s="46">
+      <c r="B305" s="42">
         <v>6486</v>
       </c>
-      <c r="C305" s="46">
+      <c r="C305" s="42">
         <v>307</v>
       </c>
       <c r="D305" s="18">
@@ -6711,10 +6711,10 @@
       <c r="A306" s="9">
         <v>44220</v>
       </c>
-      <c r="B306" s="46">
+      <c r="B306" s="42">
         <v>6307</v>
       </c>
-      <c r="C306" s="46">
+      <c r="C306" s="42">
         <v>299</v>
       </c>
       <c r="D306" s="18">
@@ -6734,10 +6734,10 @@
       <c r="A307" s="9">
         <v>44221</v>
       </c>
-      <c r="B307" s="46">
+      <c r="B307" s="42">
         <v>6213</v>
       </c>
-      <c r="C307" s="46">
+      <c r="C307" s="42">
         <v>287</v>
       </c>
       <c r="D307" s="18">
@@ -6749,10 +6749,10 @@
       <c r="F307" s="18">
         <v>21630</v>
       </c>
-      <c r="H307" s="46">
+      <c r="H307" s="42">
         <v>554.42857142857099</v>
       </c>
-      <c r="I307" s="46">
+      <c r="I307" s="42">
         <v>155.42857142857099</v>
       </c>
       <c r="J307" s="18">
@@ -6763,10 +6763,10 @@
       <c r="A308" s="9">
         <v>44222</v>
       </c>
-      <c r="B308" s="46">
+      <c r="B308" s="42">
         <v>6026</v>
       </c>
-      <c r="C308" s="46">
+      <c r="C308" s="42">
         <v>345</v>
       </c>
       <c r="D308" s="18">
@@ -6786,10 +6786,10 @@
       <c r="A309" s="9">
         <v>44223</v>
       </c>
-      <c r="B309" s="46">
+      <c r="B309" s="42">
         <v>5855</v>
       </c>
-      <c r="C309" s="46">
+      <c r="C309" s="42">
         <v>355</v>
       </c>
       <c r="D309" s="18">
@@ -6809,10 +6809,10 @@
       <c r="A310" s="9">
         <v>44224</v>
       </c>
-      <c r="B310" s="46">
+      <c r="B310" s="42">
         <v>5669</v>
       </c>
-      <c r="C310" s="46">
+      <c r="C310" s="42">
         <v>372</v>
       </c>
       <c r="D310" s="18">
@@ -6832,10 +6832,10 @@
       <c r="A311" s="9">
         <v>44225</v>
       </c>
-      <c r="B311" s="46">
+      <c r="B311" s="42">
         <v>5511</v>
       </c>
-      <c r="C311" s="46">
+      <c r="C311" s="42">
         <v>325</v>
       </c>
       <c r="D311" s="18">
@@ -6850,7 +6850,7 @@
       <c r="J311" s="18">
         <v>4805.4285714285697</v>
       </c>
-      <c r="L311" s="47">
+      <c r="L311" s="52">
         <v>0.44</v>
       </c>
     </row>
@@ -6858,10 +6858,10 @@
       <c r="A312" s="9">
         <v>44226</v>
       </c>
-      <c r="B312" s="46">
+      <c r="B312" s="42">
         <v>5398</v>
       </c>
-      <c r="C312" s="46">
+      <c r="C312" s="42">
         <v>320</v>
       </c>
       <c r="D312" s="18">
@@ -6881,10 +6881,10 @@
       <c r="A313" s="9">
         <v>44227</v>
       </c>
-      <c r="B313" s="46">
+      <c r="B313" s="42">
         <v>5259</v>
       </c>
-      <c r="C313" s="46">
+      <c r="C313" s="42">
         <v>300</v>
       </c>
       <c r="D313" s="18">
@@ -6904,10 +6904,10 @@
       <c r="A314" s="9">
         <v>44228</v>
       </c>
-      <c r="B314" s="46">
+      <c r="B314" s="42">
         <v>5165</v>
       </c>
-      <c r="C314" s="46">
+      <c r="C314" s="42">
         <v>278</v>
       </c>
       <c r="D314" s="18">
@@ -6919,10 +6919,10 @@
       <c r="F314" s="18">
         <v>22110</v>
       </c>
-      <c r="H314" s="46">
+      <c r="H314" s="42">
         <v>426.71428571428601</v>
       </c>
-      <c r="I314" s="46">
+      <c r="I314" s="42">
         <v>161</v>
       </c>
       <c r="J314" s="18">
@@ -6933,10 +6933,10 @@
       <c r="A315" s="9">
         <v>44229</v>
       </c>
-      <c r="B315" s="46">
+      <c r="B315" s="42">
         <v>4990</v>
       </c>
-      <c r="C315" s="46">
+      <c r="C315" s="42">
         <v>314</v>
       </c>
       <c r="D315" s="18">
@@ -6956,10 +6956,10 @@
       <c r="A316" s="9">
         <v>44230</v>
       </c>
-      <c r="B316" s="46">
+      <c r="B316" s="42">
         <v>4796</v>
       </c>
-      <c r="C316" s="46">
+      <c r="C316" s="42">
         <v>346</v>
       </c>
       <c r="D316" s="18">
@@ -6979,10 +6979,10 @@
       <c r="A317" s="9">
         <v>44231</v>
       </c>
-      <c r="B317" s="46">
+      <c r="B317" s="42">
         <v>4607</v>
       </c>
-      <c r="C317" s="46">
+      <c r="C317" s="42">
         <v>319</v>
       </c>
       <c r="D317" s="18">
@@ -7002,10 +7002,10 @@
       <c r="A318" s="9">
         <v>44232</v>
       </c>
-      <c r="B318" s="46">
+      <c r="B318" s="42">
         <v>4421</v>
       </c>
-      <c r="C318" s="46">
+      <c r="C318" s="42">
         <v>338</v>
       </c>
       <c r="D318" s="18">
@@ -7020,7 +7020,7 @@
       <c r="J318" s="18">
         <v>3349.7142857142899</v>
       </c>
-      <c r="L318" s="47">
+      <c r="L318" s="52">
         <v>0.46</v>
       </c>
     </row>
@@ -7028,10 +7028,10 @@
       <c r="A319" s="9">
         <v>44233</v>
       </c>
-      <c r="B319" s="46">
+      <c r="B319" s="42">
         <v>4186</v>
       </c>
-      <c r="C319" s="46">
+      <c r="C319" s="42">
         <v>306</v>
       </c>
       <c r="D319" s="18">
@@ -7051,10 +7051,10 @@
       <c r="A320" s="9">
         <v>44234</v>
       </c>
-      <c r="B320" s="46">
+      <c r="B320" s="42">
         <v>4079</v>
       </c>
-      <c r="C320" s="46">
+      <c r="C320" s="42">
         <v>255</v>
       </c>
       <c r="D320" s="18">
@@ -7074,10 +7074,10 @@
       <c r="A321" s="9">
         <v>44235</v>
       </c>
-      <c r="B321" s="46">
+      <c r="B321" s="42">
         <v>3973</v>
       </c>
-      <c r="C321" s="46">
+      <c r="C321" s="42">
         <v>267</v>
       </c>
       <c r="D321" s="18">
@@ -7089,10 +7089,10 @@
       <c r="F321" s="18">
         <v>22384</v>
       </c>
-      <c r="H321" s="46">
+      <c r="H321" s="42">
         <v>306.857142857143</v>
       </c>
-      <c r="I321" s="46">
+      <c r="I321" s="42">
         <v>150.28571428571399</v>
       </c>
       <c r="J321" s="18">
@@ -7103,10 +7103,10 @@
       <c r="A322" s="9">
         <v>44236</v>
       </c>
-      <c r="B322" s="46">
+      <c r="B322" s="42">
         <v>3772</v>
       </c>
-      <c r="C322" s="46">
+      <c r="C322" s="42">
         <v>312</v>
       </c>
       <c r="D322" s="18">
@@ -7126,10 +7126,10 @@
       <c r="A323" s="9">
         <v>44237</v>
       </c>
-      <c r="B323" s="46">
+      <c r="B323" s="42">
         <v>3614</v>
       </c>
-      <c r="C323" s="46">
+      <c r="C323" s="42">
         <v>256</v>
       </c>
       <c r="D323" s="18">
@@ -7149,10 +7149,10 @@
       <c r="A324" s="9">
         <v>44238</v>
       </c>
-      <c r="B324" s="46">
+      <c r="B324" s="42">
         <v>3415</v>
       </c>
-      <c r="C324" s="46">
+      <c r="C324" s="42">
         <v>223</v>
       </c>
       <c r="D324" s="18">
@@ -7172,10 +7172,10 @@
       <c r="A325" s="9">
         <v>44239</v>
       </c>
-      <c r="B325" s="46">
+      <c r="B325" s="42">
         <v>3270</v>
       </c>
-      <c r="C325" s="46">
+      <c r="C325" s="42">
         <v>196</v>
       </c>
       <c r="D325" s="18">
@@ -7195,10 +7195,10 @@
       <c r="A326" s="9">
         <v>44240</v>
       </c>
-      <c r="B326" s="46">
+      <c r="B326" s="42">
         <v>3092</v>
       </c>
-      <c r="C326" s="46">
+      <c r="C326" s="42">
         <v>201</v>
       </c>
       <c r="D326" s="18">
@@ -7218,10 +7218,10 @@
       <c r="A327" s="9">
         <v>44241</v>
       </c>
-      <c r="B327" s="46">
+      <c r="B327" s="42">
         <v>2964</v>
       </c>
-      <c r="C327" s="46">
+      <c r="C327" s="42">
         <v>200</v>
       </c>
       <c r="D327" s="18">
@@ -7241,10 +7241,10 @@
       <c r="A328" s="9">
         <v>44242</v>
       </c>
-      <c r="B328" s="46">
+      <c r="B328" s="42">
         <v>2855</v>
       </c>
-      <c r="C328" s="46">
+      <c r="C328" s="42">
         <v>189</v>
       </c>
       <c r="D328" s="18">
@@ -7256,10 +7256,10 @@
       <c r="F328" s="18">
         <v>22524</v>
       </c>
-      <c r="H328" s="46">
+      <c r="H328" s="42">
         <v>222.28571428571399</v>
       </c>
-      <c r="I328" s="46">
+      <c r="I328" s="42">
         <v>142.28571428571399</v>
       </c>
       <c r="J328" s="18">
@@ -7270,10 +7270,10 @@
       <c r="A329" s="9">
         <v>44243</v>
       </c>
-      <c r="B329" s="46">
+      <c r="B329" s="42">
         <v>2757</v>
       </c>
-      <c r="C329" s="46">
+      <c r="C329" s="42">
         <v>223</v>
       </c>
       <c r="D329" s="18">
@@ -7293,10 +7293,10 @@
       <c r="A330" s="9">
         <v>44244</v>
       </c>
-      <c r="B330" s="46">
+      <c r="B330" s="42">
         <v>2640</v>
       </c>
-      <c r="C330" s="46">
+      <c r="C330" s="42">
         <v>230</v>
       </c>
       <c r="D330" s="18">
@@ -7313,10 +7313,10 @@
       <c r="A331" s="9">
         <v>44245</v>
       </c>
-      <c r="B331" s="46">
+      <c r="B331" s="42">
         <v>2498</v>
       </c>
-      <c r="C331" s="46">
+      <c r="C331" s="42">
         <v>247</v>
       </c>
       <c r="D331" s="18">
@@ -7333,10 +7333,10 @@
       <c r="A332" s="9">
         <v>44246</v>
       </c>
-      <c r="B332" s="46">
+      <c r="B332" s="42">
         <v>2369</v>
       </c>
-      <c r="C332" s="46">
+      <c r="C332" s="42">
         <v>228</v>
       </c>
       <c r="D332" s="18">
@@ -7353,10 +7353,10 @@
       <c r="A333" s="9">
         <v>44247</v>
       </c>
-      <c r="B333" s="46">
+      <c r="B333" s="42">
         <v>2213</v>
       </c>
-      <c r="C333" s="46">
+      <c r="C333" s="42">
         <v>212</v>
       </c>
       <c r="D333" s="18">
@@ -7373,10 +7373,10 @@
       <c r="A334" s="9">
         <v>44248</v>
       </c>
-      <c r="B334" s="46">
+      <c r="B334" s="42">
         <v>2146</v>
       </c>
-      <c r="C334" s="46">
+      <c r="C334" s="42">
         <v>191</v>
       </c>
       <c r="D334" s="18">
@@ -7393,10 +7393,10 @@
       <c r="A335" s="9">
         <v>44249</v>
       </c>
-      <c r="B335" s="46">
+      <c r="B335" s="42">
         <v>2064</v>
       </c>
-      <c r="C335" s="46">
+      <c r="C335" s="42">
         <v>200</v>
       </c>
       <c r="D335" s="18">
@@ -7405,10 +7405,10 @@
       <c r="E335" s="18">
         <v>34</v>
       </c>
-      <c r="H335" s="46">
+      <c r="H335" s="42">
         <v>169.142857142857</v>
       </c>
-      <c r="I335" s="46">
+      <c r="I335" s="42">
         <v>147.28571428571399</v>
       </c>
       <c r="J335" s="18">
@@ -7419,10 +7419,10 @@
       <c r="A336" s="9">
         <v>44250</v>
       </c>
-      <c r="B336" s="46">
+      <c r="B336" s="42">
         <v>1988</v>
       </c>
-      <c r="C336" s="46">
+      <c r="C336" s="42">
         <v>226</v>
       </c>
       <c r="D336" s="18">
@@ -7439,10 +7439,10 @@
       <c r="A337" s="9">
         <v>44251</v>
       </c>
-      <c r="B337" s="46">
+      <c r="B337" s="42">
         <v>1886</v>
       </c>
-      <c r="C337" s="46">
+      <c r="C337" s="42">
         <v>215</v>
       </c>
       <c r="D337" s="18">
@@ -7459,10 +7459,10 @@
       <c r="A338" s="9">
         <v>44252</v>
       </c>
-      <c r="B338" s="46">
+      <c r="B338" s="42">
         <v>1733</v>
       </c>
-      <c r="C338" s="46">
+      <c r="C338" s="42">
         <v>229</v>
       </c>
       <c r="D338" s="18">
@@ -7479,10 +7479,10 @@
       <c r="A339" s="9">
         <v>44253</v>
       </c>
-      <c r="B339" s="46">
+      <c r="B339" s="42">
         <v>1661</v>
       </c>
-      <c r="C339" s="46">
+      <c r="C339" s="42">
         <v>194</v>
       </c>
       <c r="D339" s="18">
@@ -7499,10 +7499,10 @@
       <c r="A340" s="9">
         <v>44254</v>
       </c>
-      <c r="B340" s="46">
+      <c r="B340" s="42">
         <v>1578</v>
       </c>
-      <c r="C340" s="46">
+      <c r="C340" s="42">
         <v>183</v>
       </c>
       <c r="D340" s="18">
@@ -7519,10 +7519,10 @@
       <c r="A341" s="9">
         <v>44255</v>
       </c>
-      <c r="B341" s="46">
+      <c r="B341" s="42">
         <v>1502</v>
       </c>
-      <c r="C341" s="46">
+      <c r="C341" s="42">
         <v>157</v>
       </c>
       <c r="D341" s="18">
@@ -7539,10 +7539,10 @@
       <c r="A342" s="9">
         <v>44256</v>
       </c>
-      <c r="B342" s="46">
+      <c r="B342" s="42">
         <v>1476</v>
       </c>
-      <c r="C342" s="46">
+      <c r="C342" s="42">
         <v>155</v>
       </c>
       <c r="D342" s="18">
@@ -7551,10 +7551,10 @@
       <c r="E342" s="18">
         <v>25</v>
       </c>
-      <c r="H342" s="46">
+      <c r="H342" s="42">
         <v>137.857142857143</v>
       </c>
-      <c r="I342" s="46">
+      <c r="I342" s="42">
         <v>124</v>
       </c>
       <c r="J342" s="18">
@@ -7565,10 +7565,10 @@
       <c r="A343" s="9">
         <v>44257</v>
       </c>
-      <c r="B343" s="46">
+      <c r="B343" s="42">
         <v>1401</v>
       </c>
-      <c r="C343" s="46">
+      <c r="C343" s="42">
         <v>173</v>
       </c>
       <c r="D343" s="18">
@@ -7585,10 +7585,10 @@
       <c r="A344" s="9">
         <v>44258</v>
       </c>
-      <c r="B344" s="46">
+      <c r="B344" s="42">
         <v>1341</v>
       </c>
-      <c r="C344" s="46">
+      <c r="C344" s="42">
         <v>182</v>
       </c>
       <c r="D344" s="18">
@@ -7605,10 +7605,10 @@
       <c r="A345" s="9">
         <v>44259</v>
       </c>
-      <c r="B345" s="46">
+      <c r="B345" s="42">
         <v>1264</v>
       </c>
-      <c r="C345" s="46">
+      <c r="C345" s="42">
         <v>191</v>
       </c>
       <c r="D345" s="18">
@@ -7625,10 +7625,10 @@
       <c r="A346" s="9">
         <v>44260</v>
       </c>
-      <c r="B346" s="46">
+      <c r="B346" s="42">
         <v>1176</v>
       </c>
-      <c r="C346" s="46">
+      <c r="C346" s="42">
         <v>164</v>
       </c>
       <c r="D346" s="18">
@@ -7645,10 +7645,10 @@
       <c r="A347" s="9">
         <v>44261</v>
       </c>
-      <c r="B347" s="46">
+      <c r="B347" s="42">
         <v>1132</v>
       </c>
-      <c r="C347" s="46">
+      <c r="C347" s="42">
         <v>156</v>
       </c>
       <c r="D347" s="18">
@@ -7665,10 +7665,10 @@
       <c r="A348" s="9">
         <v>44262</v>
       </c>
-      <c r="B348" s="46">
+      <c r="B348" s="42">
         <v>1119</v>
       </c>
-      <c r="C348" s="46">
+      <c r="C348" s="42">
         <v>128</v>
       </c>
       <c r="D348" s="18">
@@ -7685,10 +7685,10 @@
       <c r="A349" s="9">
         <v>44263</v>
       </c>
-      <c r="B349" s="46">
+      <c r="B349" s="42">
         <v>1079</v>
       </c>
-      <c r="C349" s="46">
+      <c r="C349" s="42">
         <v>139</v>
       </c>
       <c r="D349" s="18">
@@ -7705,10 +7705,10 @@
       <c r="A350" s="9">
         <v>44264</v>
       </c>
-      <c r="B350" s="46">
+      <c r="B350" s="42">
         <v>1056</v>
       </c>
-      <c r="C350" s="46">
+      <c r="C350" s="42">
         <v>151</v>
       </c>
       <c r="D350" s="18">
@@ -7725,10 +7725,10 @@
       <c r="A351" s="9">
         <v>44265</v>
       </c>
-      <c r="B351" s="46">
+      <c r="B351" s="42">
         <v>1015</v>
       </c>
-      <c r="C351" s="46">
+      <c r="C351" s="42">
         <v>163</v>
       </c>
       <c r="D351" s="18">
@@ -7745,10 +7745,10 @@
       <c r="A352" s="9">
         <v>44266</v>
       </c>
-      <c r="B352" s="46">
+      <c r="B352" s="42">
         <v>979</v>
       </c>
-      <c r="C352" s="46">
+      <c r="C352" s="42">
         <v>167</v>
       </c>
       <c r="D352" s="18">
@@ -7765,10 +7765,10 @@
       <c r="A353" s="9">
         <v>44267</v>
       </c>
-      <c r="B353" s="46">
+      <c r="B353" s="42">
         <v>951</v>
       </c>
-      <c r="C353" s="46">
+      <c r="C353" s="42">
         <v>155</v>
       </c>
       <c r="D353" s="18">
@@ -7785,10 +7785,10 @@
       <c r="A354" s="9">
         <v>44268</v>
       </c>
-      <c r="B354" s="46">
+      <c r="B354" s="42">
         <v>893</v>
       </c>
-      <c r="C354" s="46">
+      <c r="C354" s="42">
         <v>156</v>
       </c>
       <c r="D354" s="18">
@@ -7805,10 +7805,10 @@
       <c r="A355" s="9">
         <v>44269</v>
       </c>
-      <c r="B355" s="46">
+      <c r="B355" s="42">
         <v>865</v>
       </c>
-      <c r="C355" s="46">
+      <c r="C355" s="42">
         <v>145</v>
       </c>
       <c r="D355" s="18">
@@ -7825,10 +7825,10 @@
       <c r="A356" s="9">
         <v>44270</v>
       </c>
-      <c r="B356" s="46">
+      <c r="B356" s="42">
         <v>857</v>
       </c>
-      <c r="C356" s="46">
+      <c r="C356" s="42">
         <v>137</v>
       </c>
       <c r="D356" s="18">
@@ -7842,10 +7842,10 @@
       <c r="A357" s="9">
         <v>44271</v>
       </c>
-      <c r="B357" s="46">
+      <c r="B357" s="42">
         <v>861</v>
       </c>
-      <c r="C357" s="46">
+      <c r="C357" s="42">
         <v>142</v>
       </c>
       <c r="D357" s="18">
@@ -7859,10 +7859,10 @@
       <c r="A358" s="9">
         <v>44272</v>
       </c>
-      <c r="B358" s="46">
+      <c r="B358" s="42">
         <v>861</v>
       </c>
-      <c r="C358" s="46">
+      <c r="C358" s="42">
         <v>177</v>
       </c>
       <c r="D358" s="18">
@@ -7876,10 +7876,10 @@
       <c r="A359" s="9">
         <v>44273</v>
       </c>
-      <c r="B359" s="46">
+      <c r="B359" s="42">
         <v>827</v>
       </c>
-      <c r="C359" s="46">
+      <c r="C359" s="42">
         <v>154</v>
       </c>
       <c r="D359" s="18">
@@ -7923,7 +7923,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7934,43 +7934,43 @@
   <sheetData>
     <row r="1" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C1" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="68" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" s="69" t="s">
-        <v>155</v>
-      </c>
-      <c r="C2" s="69" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" s="69" t="s">
-        <v>156</v>
-      </c>
-      <c r="E2" s="69" t="s">
-        <v>99</v>
+      <c r="D2" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="55">
-        <v>0</v>
-      </c>
-      <c r="B3" s="57">
+      <c r="A3" s="50">
+        <v>0</v>
+      </c>
+      <c r="B3" s="52">
         <v>0</v>
       </c>
       <c r="C3" s="10">
@@ -7979,15 +7979,15 @@
       <c r="D3" s="11">
         <v>44562</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="52">
         <v>0.85</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="56">
+      <c r="A4" s="51">
         <v>5</v>
       </c>
-      <c r="B4" s="57">
+      <c r="B4" s="52">
         <v>0</v>
       </c>
       <c r="C4" s="10">
@@ -7996,15 +7996,15 @@
       <c r="D4" s="11">
         <v>44562</v>
       </c>
-      <c r="E4" s="57">
+      <c r="E4" s="52">
         <v>0.85</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="56">
+      <c r="A5" s="51">
         <v>12</v>
       </c>
-      <c r="B5" s="57">
+      <c r="B5" s="52">
         <v>0</v>
       </c>
       <c r="C5" s="10">
@@ -8013,15 +8013,15 @@
       <c r="D5" s="11">
         <v>44075</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="52">
         <v>0.85</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="56">
+      <c r="A6" s="51">
         <v>16</v>
       </c>
-      <c r="B6" s="57">
+      <c r="B6" s="52">
         <v>7.4506675019129207E-2</v>
       </c>
       <c r="C6" s="10">
@@ -8030,15 +8030,15 @@
       <c r="D6" s="11">
         <v>44166</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="52">
         <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="56">
+      <c r="A7" s="51">
         <v>30</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="52">
         <v>0.10614649591766399</v>
       </c>
       <c r="C7" s="10">
@@ -8047,15 +8047,15 @@
       <c r="D7" s="11">
         <v>44166</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="52">
         <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="56">
+      <c r="A8" s="51">
         <v>40</v>
       </c>
-      <c r="B8" s="57">
+      <c r="B8" s="52">
         <v>0.110229053452958</v>
       </c>
       <c r="C8" s="10">
@@ -8064,15 +8064,15 @@
       <c r="D8" s="11">
         <v>44166</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="52">
         <v>0.85</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="56">
+      <c r="A9" s="51">
         <v>50</v>
       </c>
-      <c r="B9" s="57">
+      <c r="B9" s="52">
         <v>0.18881828600738201</v>
       </c>
       <c r="C9" s="10">
@@ -8081,15 +8081,15 @@
       <c r="D9" s="11">
         <v>44166</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="52">
         <v>0.85</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="56">
+      <c r="A10" s="51">
         <v>65</v>
       </c>
-      <c r="B10" s="57">
+      <c r="B10" s="52">
         <v>0.241497498947746</v>
       </c>
       <c r="C10" s="10">
@@ -8098,15 +8098,15 @@
       <c r="D10" s="11">
         <v>44166</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="52">
         <v>0.85</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="56">
+      <c r="A11" s="51">
         <v>75</v>
       </c>
-      <c r="B11" s="57">
+      <c r="B11" s="52">
         <v>0.18063227563571199</v>
       </c>
       <c r="C11" s="10">
@@ -8115,15 +8115,15 @@
       <c r="D11" s="11">
         <v>44166</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="52">
         <v>0.85</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="56">
+      <c r="A12" s="51">
         <v>85</v>
       </c>
-      <c r="B12" s="57">
+      <c r="B12" s="52">
         <v>9.8169715019408799E-2</v>
       </c>
       <c r="C12" s="10">
@@ -8132,14 +8132,14 @@
       <c r="D12" s="11">
         <v>44166</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="52">
         <v>0.85</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="55"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="55"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8150,15 +8150,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5342CD-922E-4E66-8571-678B15FFEC66}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="24" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="62" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8167,13 +8167,13 @@
         <v>5</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>159</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8181,13 +8181,13 @@
         <v>26</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8211,7 +8211,7 @@
       <c r="B4" s="24">
         <v>3347</v>
       </c>
-      <c r="C4" s="66">
+      <c r="C4" s="61">
         <v>0</v>
       </c>
       <c r="D4" s="10">
@@ -8225,7 +8225,7 @@
       <c r="B5" s="24">
         <v>10082</v>
       </c>
-      <c r="C5" s="66">
+      <c r="C5" s="61">
         <v>0</v>
       </c>
       <c r="D5" s="10">
@@ -8239,7 +8239,7 @@
       <c r="B6" s="24">
         <v>14104</v>
       </c>
-      <c r="C6" s="66">
+      <c r="C6" s="61">
         <v>0</v>
       </c>
       <c r="D6" s="10">
@@ -8253,7 +8253,7 @@
       <c r="B7" s="24">
         <v>6930</v>
       </c>
-      <c r="C7" s="66">
+      <c r="C7" s="61">
         <v>0</v>
       </c>
       <c r="D7" s="10">
@@ -8267,7 +8267,7 @@
       <c r="B8" s="24">
         <v>4415</v>
       </c>
-      <c r="C8" s="66">
+      <c r="C8" s="61">
         <v>0</v>
       </c>
       <c r="D8" s="10">
@@ -8281,7 +8281,7 @@
       <c r="B9" s="24">
         <v>13314</v>
       </c>
-      <c r="C9" s="66">
+      <c r="C9" s="61">
         <v>0</v>
       </c>
       <c r="D9" s="10">
@@ -8295,7 +8295,7 @@
       <c r="B10" s="24">
         <v>11415</v>
       </c>
-      <c r="C10" s="66">
+      <c r="C10" s="61">
         <v>0</v>
       </c>
       <c r="D10" s="10">
@@ -8309,7 +8309,7 @@
       <c r="B11" s="24">
         <v>11687</v>
       </c>
-      <c r="C11" s="66">
+      <c r="C11" s="61">
         <v>0</v>
       </c>
       <c r="D11" s="10">
@@ -8323,7 +8323,7 @@
       <c r="B12" s="24">
         <v>6407</v>
       </c>
-      <c r="C12" s="66">
+      <c r="C12" s="61">
         <v>0</v>
       </c>
       <c r="D12" s="10">
@@ -8337,7 +8337,7 @@
       <c r="B13" s="24">
         <v>512</v>
       </c>
-      <c r="C13" s="66">
+      <c r="C13" s="61">
         <v>0</v>
       </c>
       <c r="D13" s="10">
@@ -8351,7 +8351,7 @@
       <c r="B14" s="24">
         <v>2504</v>
       </c>
-      <c r="C14" s="66">
+      <c r="C14" s="61">
         <v>0</v>
       </c>
       <c r="D14" s="10">
@@ -8365,7 +8365,7 @@
       <c r="B15" s="24">
         <v>1683</v>
       </c>
-      <c r="C15" s="66">
+      <c r="C15" s="61">
         <v>0</v>
       </c>
       <c r="D15" s="10">
@@ -8379,7 +8379,7 @@
       <c r="B16" s="24">
         <v>10067</v>
       </c>
-      <c r="C16" s="66">
+      <c r="C16" s="61">
         <v>0</v>
       </c>
       <c r="D16" s="10">
@@ -8393,7 +8393,7 @@
       <c r="B17" s="24">
         <v>11251</v>
       </c>
-      <c r="C17" s="66">
+      <c r="C17" s="61">
         <v>0</v>
       </c>
       <c r="D17" s="10">
@@ -8407,7 +8407,7 @@
       <c r="B18" s="24">
         <v>14088</v>
       </c>
-      <c r="C18" s="66">
+      <c r="C18" s="61">
         <v>0</v>
       </c>
       <c r="D18" s="10">
@@ -8415,13 +8415,13 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="70">
+      <c r="A19" s="65">
         <v>44196</v>
       </c>
       <c r="B19" s="24">
         <v>8072</v>
       </c>
-      <c r="C19" s="67">
+      <c r="C19" s="62">
         <v>0</v>
       </c>
       <c r="D19" s="10">
@@ -8429,13 +8429,13 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="70">
+      <c r="A20" s="65">
         <v>44197</v>
       </c>
       <c r="B20" s="24">
         <v>975</v>
       </c>
-      <c r="C20" s="67">
+      <c r="C20" s="62">
         <v>0</v>
       </c>
       <c r="D20" s="10">
@@ -8443,13 +8443,13 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="70">
+      <c r="A21" s="65">
         <v>44198</v>
       </c>
       <c r="B21" s="24">
         <v>4315</v>
       </c>
-      <c r="C21" s="67">
+      <c r="C21" s="62">
         <v>0</v>
       </c>
       <c r="D21" s="10">
@@ -8457,13 +8457,13 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="70">
+      <c r="A22" s="65">
         <v>44199</v>
       </c>
       <c r="B22" s="24">
         <v>876</v>
       </c>
-      <c r="C22" s="67">
+      <c r="C22" s="62">
         <v>0</v>
       </c>
       <c r="D22" s="10">
@@ -8471,13 +8471,13 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="70">
+      <c r="A23" s="65">
         <v>44200</v>
       </c>
       <c r="B23" s="24">
         <v>12444</v>
       </c>
-      <c r="C23" s="67">
+      <c r="C23" s="62">
         <v>0</v>
       </c>
       <c r="D23" s="10">
@@ -8485,13 +8485,13 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="70">
+      <c r="A24" s="65">
         <v>44201</v>
       </c>
       <c r="B24" s="24">
         <v>13964</v>
       </c>
-      <c r="C24" s="67">
+      <c r="C24" s="62">
         <v>1595</v>
       </c>
       <c r="D24" s="10">
@@ -8499,13 +8499,13 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="70">
+      <c r="A25" s="65">
         <v>44202</v>
       </c>
       <c r="B25" s="24">
         <v>16500</v>
       </c>
-      <c r="C25" s="67">
+      <c r="C25" s="62">
         <v>5092</v>
       </c>
       <c r="D25" s="10">
@@ -8513,13 +8513,13 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="70">
+      <c r="A26" s="65">
         <v>44203</v>
       </c>
       <c r="B26" s="24">
         <v>18811</v>
       </c>
-      <c r="C26" s="67">
+      <c r="C26" s="62">
         <v>9723</v>
       </c>
       <c r="D26" s="10">
@@ -8527,13 +8527,13 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="70">
+      <c r="A27" s="65">
         <v>44204</v>
       </c>
       <c r="B27" s="24">
         <v>20518</v>
       </c>
-      <c r="C27" s="67">
+      <c r="C27" s="62">
         <v>11327</v>
       </c>
       <c r="D27" s="10">
@@ -8541,13 +8541,13 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="70">
+      <c r="A28" s="65">
         <v>44205</v>
       </c>
       <c r="B28" s="24">
         <v>7364</v>
       </c>
-      <c r="C28" s="67">
+      <c r="C28" s="62">
         <v>4464</v>
       </c>
       <c r="D28" s="10">
@@ -8555,13 +8555,13 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="70">
+      <c r="A29" s="65">
         <v>44206</v>
       </c>
       <c r="B29" s="24">
         <v>2131</v>
       </c>
-      <c r="C29" s="67">
+      <c r="C29" s="62">
         <v>2488</v>
       </c>
       <c r="D29" s="10">
@@ -8569,13 +8569,13 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="70">
+      <c r="A30" s="65">
         <v>44207</v>
       </c>
       <c r="B30" s="24">
         <v>14236</v>
       </c>
-      <c r="C30" s="67">
+      <c r="C30" s="62">
         <v>10464</v>
       </c>
       <c r="D30" s="10">
@@ -8583,13 +8583,13 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="70">
+      <c r="A31" s="65">
         <v>44208</v>
       </c>
       <c r="B31" s="24">
         <v>19140</v>
       </c>
-      <c r="C31" s="67">
+      <c r="C31" s="62">
         <v>9279</v>
       </c>
       <c r="D31" s="10">
@@ -8597,13 +8597,13 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="70">
+      <c r="A32" s="65">
         <v>44209</v>
       </c>
       <c r="B32" s="24">
         <v>19851</v>
       </c>
-      <c r="C32" s="67">
+      <c r="C32" s="62">
         <v>8373</v>
       </c>
       <c r="D32" s="10">
@@ -8611,13 +8611,13 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="70">
+      <c r="A33" s="65">
         <v>44210</v>
       </c>
       <c r="B33" s="24">
         <v>23085</v>
       </c>
-      <c r="C33" s="67">
+      <c r="C33" s="62">
         <v>5098</v>
       </c>
       <c r="D33" s="10">
@@ -8625,13 +8625,13 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="70">
+      <c r="A34" s="65">
         <v>44211</v>
       </c>
       <c r="B34" s="24">
         <v>28825</v>
       </c>
-      <c r="C34" s="67">
+      <c r="C34" s="62">
         <v>3383</v>
       </c>
       <c r="D34" s="10">
@@ -8639,13 +8639,13 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="70">
+      <c r="A35" s="65">
         <v>44212</v>
       </c>
       <c r="B35" s="24">
         <v>15095</v>
       </c>
-      <c r="C35" s="67">
+      <c r="C35" s="62">
         <v>1756</v>
       </c>
       <c r="D35" s="10">
@@ -8653,13 +8653,13 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="70">
+      <c r="A36" s="65">
         <v>44213</v>
       </c>
       <c r="B36" s="24">
         <v>4927</v>
       </c>
-      <c r="C36" s="67">
+      <c r="C36" s="62">
         <v>231</v>
       </c>
       <c r="D36" s="10">
@@ -8667,13 +8667,13 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="70">
+      <c r="A37" s="65">
         <v>44214</v>
       </c>
       <c r="B37" s="24">
         <v>10221</v>
       </c>
-      <c r="C37" s="67">
+      <c r="C37" s="62">
         <v>4604</v>
       </c>
       <c r="D37" s="10">
@@ -8681,13 +8681,13 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="70">
+      <c r="A38" s="65">
         <v>44215</v>
       </c>
       <c r="B38" s="24">
         <v>29585</v>
       </c>
-      <c r="C38" s="67">
+      <c r="C38" s="62">
         <v>7065</v>
       </c>
       <c r="D38" s="10">
@@ -8695,13 +8695,13 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="70">
+      <c r="A39" s="65">
         <v>44216</v>
       </c>
       <c r="B39" s="24">
         <v>37017</v>
       </c>
-      <c r="C39" s="67">
+      <c r="C39" s="62">
         <v>7289</v>
       </c>
       <c r="D39" s="10">
@@ -8709,13 +8709,13 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="70">
+      <c r="A40" s="65">
         <v>44217</v>
       </c>
       <c r="B40" s="24">
         <v>41943</v>
       </c>
-      <c r="C40" s="67">
+      <c r="C40" s="62">
         <v>3999</v>
       </c>
       <c r="D40" s="10">
@@ -8723,13 +8723,13 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="70">
+      <c r="A41" s="65">
         <v>44218</v>
       </c>
       <c r="B41" s="24">
         <v>42474</v>
       </c>
-      <c r="C41" s="67">
+      <c r="C41" s="62">
         <v>3228</v>
       </c>
       <c r="D41" s="10">
@@ -8737,13 +8737,13 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="70">
+      <c r="A42" s="65">
         <v>44219</v>
       </c>
       <c r="B42" s="24">
         <v>30747</v>
       </c>
-      <c r="C42" s="67">
+      <c r="C42" s="62">
         <v>1896</v>
       </c>
       <c r="D42" s="10">
@@ -8751,13 +8751,13 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="70">
+      <c r="A43" s="65">
         <v>44220</v>
       </c>
       <c r="B43" s="24">
         <v>14973</v>
       </c>
-      <c r="C43" s="67">
+      <c r="C43" s="62">
         <v>512</v>
       </c>
       <c r="D43" s="10">
@@ -8765,13 +8765,13 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="70">
+      <c r="A44" s="65">
         <v>44221</v>
       </c>
       <c r="B44" s="24">
         <v>28595</v>
       </c>
-      <c r="C44" s="67">
+      <c r="C44" s="62">
         <v>7989</v>
       </c>
       <c r="D44" s="10">
@@ -8779,13 +8779,13 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="70">
+      <c r="A45" s="65">
         <v>44222</v>
       </c>
       <c r="B45" s="24">
         <v>39489</v>
       </c>
-      <c r="C45" s="67">
+      <c r="C45" s="62">
         <v>7680</v>
       </c>
       <c r="D45" s="10">
@@ -8793,13 +8793,13 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="70">
+      <c r="A46" s="65">
         <v>44223</v>
       </c>
       <c r="B46" s="24">
         <v>37821</v>
       </c>
-      <c r="C46" s="67">
+      <c r="C46" s="62">
         <v>8599</v>
       </c>
       <c r="D46" s="10">
@@ -8807,13 +8807,13 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="70">
+      <c r="A47" s="65">
         <v>44224</v>
       </c>
       <c r="B47" s="24">
         <v>37288</v>
       </c>
-      <c r="C47" s="67">
+      <c r="C47" s="62">
         <v>7836</v>
       </c>
       <c r="D47" s="10">
@@ -8821,13 +8821,13 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="70">
+      <c r="A48" s="65">
         <v>44225</v>
       </c>
       <c r="B48" s="24">
         <v>36886</v>
       </c>
-      <c r="C48" s="67">
+      <c r="C48" s="62">
         <v>8717</v>
       </c>
       <c r="D48" s="10">
@@ -8835,13 +8835,13 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="70">
+      <c r="A49" s="65">
         <v>44226</v>
       </c>
       <c r="B49" s="24">
         <v>25146</v>
       </c>
-      <c r="C49" s="67">
+      <c r="C49" s="62">
         <v>3785</v>
       </c>
       <c r="D49" s="10">
@@ -8849,13 +8849,13 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="70">
+      <c r="A50" s="65">
         <v>44227</v>
       </c>
       <c r="B50" s="24">
         <v>11839</v>
       </c>
-      <c r="C50" s="67">
+      <c r="C50" s="62">
         <v>825</v>
       </c>
       <c r="D50" s="10">
@@ -8863,13 +8863,13 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="70">
+      <c r="A51" s="65">
         <v>44228</v>
       </c>
       <c r="B51" s="24">
         <v>26518</v>
       </c>
-      <c r="C51" s="67">
+      <c r="C51" s="62">
         <v>9664</v>
       </c>
       <c r="D51" s="10">
@@ -8877,13 +8877,13 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="70">
+      <c r="A52" s="65">
         <v>44229</v>
       </c>
       <c r="B52" s="24">
         <v>30923</v>
       </c>
-      <c r="C52" s="67">
+      <c r="C52" s="62">
         <v>11396</v>
       </c>
       <c r="D52" s="10">
@@ -8891,13 +8891,13 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="70">
+      <c r="A53" s="65">
         <v>44230</v>
       </c>
       <c r="B53" s="24">
         <v>36035</v>
       </c>
-      <c r="C53" s="67">
+      <c r="C53" s="62">
         <v>13592</v>
       </c>
       <c r="D53" s="10">
@@ -8905,13 +8905,13 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="70">
+      <c r="A54" s="65">
         <v>44231</v>
       </c>
       <c r="B54" s="24">
         <v>37754</v>
       </c>
-      <c r="C54" s="67">
+      <c r="C54" s="62">
         <v>16840</v>
       </c>
       <c r="D54" s="10">
@@ -8919,13 +8919,13 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="70">
+      <c r="A55" s="65">
         <v>44232</v>
       </c>
       <c r="B55" s="24">
         <v>37842</v>
       </c>
-      <c r="C55" s="67">
+      <c r="C55" s="62">
         <v>19979</v>
       </c>
       <c r="D55" s="10">
@@ -8933,13 +8933,13 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="70">
+      <c r="A56" s="65">
         <v>44233</v>
       </c>
       <c r="B56" s="24">
         <v>25994</v>
       </c>
-      <c r="C56" s="67">
+      <c r="C56" s="62">
         <v>7900</v>
       </c>
       <c r="D56" s="10">
@@ -8947,13 +8947,13 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="70">
+      <c r="A57" s="65">
         <v>44234</v>
       </c>
       <c r="B57" s="24">
         <v>7975</v>
       </c>
-      <c r="C57" s="67">
+      <c r="C57" s="62">
         <v>1954</v>
       </c>
       <c r="D57" s="10">
@@ -8961,13 +8961,13 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="70">
+      <c r="A58" s="65">
         <v>44235</v>
       </c>
       <c r="B58" s="24">
         <v>29651</v>
       </c>
-      <c r="C58" s="67">
+      <c r="C58" s="62">
         <v>15097</v>
       </c>
       <c r="D58" s="10">
@@ -8975,13 +8975,13 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="70">
+      <c r="A59" s="65">
         <v>44236</v>
       </c>
       <c r="B59" s="24">
         <v>27435</v>
       </c>
-      <c r="C59" s="67">
+      <c r="C59" s="62">
         <v>24783</v>
       </c>
       <c r="D59" s="10">
@@ -8989,13 +8989,13 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="70">
+      <c r="A60" s="65">
         <v>44237</v>
       </c>
       <c r="B60" s="24">
         <v>29866</v>
       </c>
-      <c r="C60" s="67">
+      <c r="C60" s="62">
         <v>32806</v>
       </c>
       <c r="D60" s="10">
@@ -9003,13 +9003,13 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="70">
+      <c r="A61" s="65">
         <v>44238</v>
       </c>
       <c r="B61" s="24">
         <v>26513</v>
       </c>
-      <c r="C61" s="67">
+      <c r="C61" s="62">
         <v>28119</v>
       </c>
       <c r="D61" s="10">
@@ -9017,13 +9017,13 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="70">
+      <c r="A62" s="65">
         <v>44239</v>
       </c>
       <c r="B62" s="24">
         <v>24128</v>
       </c>
-      <c r="C62" s="67">
+      <c r="C62" s="62">
         <v>30770</v>
       </c>
       <c r="D62" s="10">
@@ -9031,13 +9031,13 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="70">
+      <c r="A63" s="65">
         <v>44240</v>
       </c>
       <c r="B63" s="24">
         <v>15386</v>
       </c>
-      <c r="C63" s="67">
+      <c r="C63" s="62">
         <v>17217</v>
       </c>
       <c r="D63" s="10">
@@ -9045,13 +9045,13 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="70">
+      <c r="A64" s="65">
         <v>44241</v>
       </c>
       <c r="B64" s="24">
         <v>8857</v>
       </c>
-      <c r="C64" s="67">
+      <c r="C64" s="62">
         <v>12751</v>
       </c>
       <c r="D64" s="10">
@@ -9059,13 +9059,13 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="70">
+      <c r="A65" s="65">
         <v>44242</v>
       </c>
       <c r="B65" s="24">
         <v>15134</v>
       </c>
-      <c r="C65" s="67">
+      <c r="C65" s="62">
         <v>14036</v>
       </c>
       <c r="D65" s="10">
@@ -9073,13 +9073,13 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="70">
+      <c r="A66" s="65">
         <v>44243</v>
       </c>
       <c r="B66" s="24">
         <v>28227</v>
       </c>
-      <c r="C66" s="67">
+      <c r="C66" s="62">
         <v>31601</v>
       </c>
       <c r="D66" s="10">
@@ -9087,13 +9087,13 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="70">
+      <c r="A67" s="65">
         <v>44244</v>
       </c>
       <c r="B67" s="24">
         <v>24835</v>
       </c>
-      <c r="C67" s="67">
+      <c r="C67" s="62">
         <v>34967</v>
       </c>
       <c r="D67" s="10">
@@ -9101,13 +9101,13 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="70">
+      <c r="A68" s="65">
         <v>44245</v>
       </c>
       <c r="B68" s="24">
         <v>25451</v>
       </c>
-      <c r="C68" s="67">
+      <c r="C68" s="62">
         <v>35410</v>
       </c>
       <c r="D68" s="10">
@@ -9115,13 +9115,13 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="70">
+      <c r="A69" s="65">
         <v>44246</v>
       </c>
       <c r="B69" s="24">
         <v>25523</v>
       </c>
-      <c r="C69" s="67">
+      <c r="C69" s="62">
         <v>23506</v>
       </c>
       <c r="D69" s="10">
@@ -9129,13 +9129,13 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="70">
+      <c r="A70" s="65">
         <v>44247</v>
       </c>
       <c r="B70" s="24">
         <v>12076</v>
       </c>
-      <c r="C70" s="67">
+      <c r="C70" s="62">
         <v>14931</v>
       </c>
       <c r="D70" s="10">
@@ -9143,13 +9143,13 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="70">
+      <c r="A71" s="65">
         <v>44248</v>
       </c>
       <c r="B71" s="24">
         <v>6881</v>
       </c>
-      <c r="C71" s="67">
+      <c r="C71" s="62">
         <v>6113</v>
       </c>
       <c r="D71" s="10">
@@ -9157,13 +9157,13 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="70">
+      <c r="A72" s="65">
         <v>44249</v>
       </c>
       <c r="B72" s="24">
         <v>12501</v>
       </c>
-      <c r="C72" s="67">
+      <c r="C72" s="62">
         <v>12964</v>
       </c>
       <c r="D72" s="10">
@@ -9171,13 +9171,13 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="70">
+      <c r="A73" s="65">
         <v>44250</v>
       </c>
       <c r="B73" s="24">
         <v>13990</v>
       </c>
-      <c r="C73" s="67">
+      <c r="C73" s="62">
         <v>24079</v>
       </c>
       <c r="D73" s="10">
@@ -9185,13 +9185,13 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="70">
+      <c r="A74" s="65">
         <v>44251</v>
       </c>
       <c r="B74" s="24">
         <v>11945</v>
       </c>
-      <c r="C74" s="67">
+      <c r="C74" s="62">
         <v>13730</v>
       </c>
       <c r="D74" s="10">
@@ -9217,19 +9217,19 @@
     <col min="2" max="2" width="68.5" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" customWidth="1"/>
-    <col min="5" max="5" width="27.5" style="55" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" style="55" customWidth="1"/>
-    <col min="7" max="7" width="35.6640625" style="55" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="50" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" style="50" customWidth="1"/>
+    <col min="7" max="7" width="35.6640625" style="50" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9239,19 +9239,19 @@
       <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="61" t="s">
-        <v>145</v>
+      <c r="C2" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C3" s="22">
         <v>44256</v>
@@ -9262,10 +9262,10 @@
     </row>
     <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C4" s="19">
         <v>60000</v>
@@ -9276,10 +9276,10 @@
     </row>
     <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C5" s="21">
         <v>700</v>
@@ -9290,10 +9290,10 @@
     </row>
     <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C6" s="19">
         <v>100000</v>
@@ -9303,12 +9303,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="59"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="60"/>
+      <c r="B12" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9320,170 +9320,170 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1D40A3-9166-4938-BDA5-A18F4C1841F8}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="55" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="55" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="55" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="55" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="55" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="55" customWidth="1"/>
-    <col min="7" max="8" width="13" style="55" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="55"/>
-    <col min="10" max="10" width="8.83203125" style="55" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="55"/>
-    <col min="12" max="12" width="11.33203125" style="55" customWidth="1"/>
-    <col min="13" max="14" width="12.6640625" style="55" customWidth="1"/>
-    <col min="15" max="15" width="10.5" style="55" customWidth="1"/>
-    <col min="16" max="16" width="11.5" style="55" customWidth="1"/>
-    <col min="17" max="16384" width="8.83203125" style="55"/>
+    <col min="1" max="1" width="10.6640625" style="50" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="50" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="50" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="50" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="50" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="50" customWidth="1"/>
+    <col min="7" max="8" width="13" style="50" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="50"/>
+    <col min="10" max="10" width="8.83203125" style="50" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="50"/>
+    <col min="12" max="12" width="11.33203125" style="50" customWidth="1"/>
+    <col min="13" max="14" width="12.6640625" style="50" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="50" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="50" customWidth="1"/>
+    <col min="17" max="16384" width="8.83203125" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="62" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="57" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="29"/>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
       <c r="H1" s="30"/>
-      <c r="I1" s="79" t="s">
-        <v>84</v>
-      </c>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="78" t="s">
-        <v>76</v>
-      </c>
-      <c r="P1" s="78"/>
+      <c r="I1" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" s="73"/>
     </row>
     <row r="2" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="29" t="s">
+      <c r="F2" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="O2" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="29" t="s">
+      <c r="P2" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="L3" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="N3" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="O3" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="P3" s="58" t="s">
         <v>151</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="J2" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="K2" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="L2" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="M2" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="N2" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="P2" s="29" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="63" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="I3" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="K3" s="63" t="s">
-        <v>141</v>
-      </c>
-      <c r="L3" s="63" t="s">
-        <v>88</v>
-      </c>
-      <c r="M3" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="N3" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="O3" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="P3" s="63" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B4" s="11">
         <v>44221</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="52">
         <v>0.45</v>
       </c>
-      <c r="D4" s="80">
+      <c r="D4" s="75">
         <v>1</v>
       </c>
-      <c r="E4" s="80">
+      <c r="E4" s="75">
         <v>1</v>
       </c>
-      <c r="F4" s="80">
+      <c r="F4" s="75">
         <v>1</v>
       </c>
       <c r="G4" s="10">
@@ -9492,22 +9492,22 @@
       <c r="H4" s="10">
         <v>1</v>
       </c>
-      <c r="I4" s="57">
+      <c r="I4" s="52">
         <v>0.75</v>
       </c>
-      <c r="J4" s="57">
+      <c r="J4" s="52">
         <v>0.9</v>
       </c>
-      <c r="K4" s="57">
+      <c r="K4" s="52">
         <v>0.67</v>
       </c>
-      <c r="L4" s="57">
+      <c r="L4" s="52">
         <v>0.75</v>
       </c>
-      <c r="M4" s="57">
+      <c r="M4" s="52">
         <v>0.9</v>
       </c>
-      <c r="N4" s="57">
+      <c r="N4" s="52">
         <v>0.85</v>
       </c>
       <c r="O4" s="10">
@@ -9519,12 +9519,12 @@
     </row>
     <row r="5" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B5" s="11">
         <v>44221</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="52">
         <v>0</v>
       </c>
       <c r="D5" s="10">
@@ -9542,22 +9542,22 @@
       <c r="H5" s="10">
         <v>1</v>
       </c>
-      <c r="I5" s="57">
+      <c r="I5" s="52">
         <v>0.75</v>
       </c>
-      <c r="J5" s="57">
+      <c r="J5" s="52">
         <v>0.9</v>
       </c>
-      <c r="K5" s="57">
+      <c r="K5" s="52">
         <v>0.67</v>
       </c>
-      <c r="L5" s="57">
+      <c r="L5" s="52">
         <v>0.75</v>
       </c>
-      <c r="M5" s="57">
+      <c r="M5" s="52">
         <v>0.9</v>
       </c>
-      <c r="N5" s="57">
+      <c r="N5" s="52">
         <v>0.85</v>
       </c>
       <c r="O5" s="10">
@@ -9569,12 +9569,12 @@
     </row>
     <row r="6" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="11">
         <v>44221</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="52">
         <v>0.55000000000000004</v>
       </c>
       <c r="D6" s="10">
@@ -9592,22 +9592,22 @@
       <c r="H6" s="10">
         <v>1</v>
       </c>
-      <c r="I6" s="57">
+      <c r="I6" s="52">
         <v>0.75</v>
       </c>
-      <c r="J6" s="57">
+      <c r="J6" s="52">
         <v>0.9</v>
       </c>
-      <c r="K6" s="57">
+      <c r="K6" s="52">
         <v>0.67</v>
       </c>
-      <c r="L6" s="57">
+      <c r="L6" s="52">
         <v>0.75</v>
       </c>
-      <c r="M6" s="57">
+      <c r="M6" s="52">
         <v>0.9</v>
       </c>
-      <c r="N6" s="57">
+      <c r="N6" s="52">
         <v>0.85</v>
       </c>
       <c r="O6" s="10">
@@ -9619,12 +9619,12 @@
     </row>
     <row r="7" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B7" s="11">
         <v>44221</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="52">
         <v>0</v>
       </c>
       <c r="D7" s="10">
@@ -9642,22 +9642,22 @@
       <c r="H7" s="10">
         <v>1</v>
       </c>
-      <c r="I7" s="57">
+      <c r="I7" s="52">
         <v>0.6</v>
       </c>
-      <c r="J7" s="57">
+      <c r="J7" s="52">
         <v>0.7</v>
       </c>
-      <c r="K7" s="57">
+      <c r="K7" s="52">
         <v>0.5</v>
       </c>
-      <c r="L7" s="57">
+      <c r="L7" s="52">
         <v>0.6</v>
       </c>
-      <c r="M7" s="57">
+      <c r="M7" s="52">
         <v>0.7</v>
       </c>
-      <c r="N7" s="57">
+      <c r="N7" s="52">
         <v>0.67</v>
       </c>
       <c r="O7" s="10">
@@ -9669,12 +9669,12 @@
     </row>
     <row r="8" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B8" s="11">
         <v>44221</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="52">
         <v>0</v>
       </c>
       <c r="D8" s="10">
@@ -9692,22 +9692,22 @@
       <c r="H8" s="10">
         <v>1</v>
       </c>
-      <c r="I8" s="57">
+      <c r="I8" s="52">
         <v>0.6</v>
       </c>
-      <c r="J8" s="57">
+      <c r="J8" s="52">
         <v>0.7</v>
       </c>
-      <c r="K8" s="57">
+      <c r="K8" s="52">
         <v>0.5</v>
       </c>
-      <c r="L8" s="57">
+      <c r="L8" s="52">
         <v>0.6</v>
       </c>
-      <c r="M8" s="57">
+      <c r="M8" s="52">
         <v>0.7</v>
       </c>
-      <c r="N8" s="57">
+      <c r="N8" s="52">
         <v>0.67</v>
       </c>
       <c r="O8" s="10">
@@ -9746,20 +9746,20 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C4" s="54" t="s">
-        <v>66</v>
+      <c r="C4" s="49" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -9775,7 +9775,7 @@
     </row>
     <row r="6" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -9786,7 +9786,7 @@
     </row>
     <row r="7" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -9797,7 +9797,7 @@
     </row>
     <row r="8" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -9808,7 +9808,7 @@
     </row>
     <row r="9" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -9819,10 +9819,10 @@
     </row>
     <row r="10" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C10" s="4">
         <v>0.3</v>
@@ -9830,10 +9830,10 @@
     </row>
     <row r="11" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C11" s="4">
         <v>0.3</v>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Dropbox (UC Berkeley Biostat)/jsLEMMA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D2183D-9ECF-6045-BB73-FCD36A1A1A04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854E7E8E-6BCD-C646-9A37-868A4A89E145}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9321,7 +9321,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
